--- a/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
+++ b/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14520" tabRatio="852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="14520" tabRatio="852"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -15,16 +15,11 @@
     <sheet name="BPEiC-F-gases" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
   <si>
     <t>Cement and other carbonates</t>
   </si>
@@ -78,9 +73,6 @@
   </si>
   <si>
     <t>Natural gas and petroleum systems, process CO2</t>
-  </si>
-  <si>
-    <t>Agriculture -- excluded from model</t>
   </si>
   <si>
     <t>http://www.state.gov/documents/organization/218993.pdf</t>
@@ -425,17 +417,58 @@
   <si>
     <t>Page 137, Table 5-2</t>
   </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Agriculture, N2O</t>
+  </si>
+  <si>
+    <t>Agriculture, CH4</t>
+  </si>
+  <si>
+    <t>Tab "MMCH4", Row "United States"</t>
+  </si>
+  <si>
+    <t>Tab "OtherAgCH4", Row "United States"</t>
+  </si>
+  <si>
+    <t>Tab "Enteric", Row "United States"</t>
+  </si>
+  <si>
+    <t>Tab "Rice", Row "United States"</t>
+  </si>
+  <si>
+    <t>Tab "MMN2O", Row "United States"</t>
+  </si>
+  <si>
+    <t>Tab "AgSoils", Row "United States"</t>
+  </si>
+  <si>
+    <t>Tab "OtherAgN2O", Row "United States"</t>
+  </si>
+  <si>
+    <t>Agriculture (g CO2e)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -555,6 +588,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -591,239 +655,269 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="123" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="123" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="133">
+    <cellStyle name="Comma 2" xfId="131"/>
+    <cellStyle name="Comma 3" xfId="125"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -947,7 +1041,14 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="132"/>
+    <cellStyle name="Hyperlink 3" xfId="126"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="127"/>
+    <cellStyle name="Normal 3" xfId="128"/>
+    <cellStyle name="Normal 4" xfId="130"/>
+    <cellStyle name="Normal 5" xfId="124"/>
+    <cellStyle name="Percent 2" xfId="129"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1285,99 +1386,99 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="44"/>
-    <col min="2" max="2" width="68.375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="68.3984375" style="44" customWidth="1"/>
     <col min="3" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="B3" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1394,96 +1495,96 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="53.59765625" style="2" customWidth="1"/>
     <col min="2" max="6" width="11" style="2"/>
-    <col min="7" max="7" width="44.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="28">
         <v>2010</v>
@@ -1501,13 +1602,13 @@
         <v>2030</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1618,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1638,7 @@
         <v>58</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="7"/>
@@ -1555,7 +1656,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1563,7 +1664,7 @@
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -1573,16 +1674,16 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="24">
-        <f>SUM(B25:B27)</f>
+        <f>SUM(B26:B27)</f>
         <v>247.80281864766346</v>
       </c>
       <c r="C23" s="24">
-        <f t="shared" ref="C23:F23" si="0">SUM(C25:C27)</f>
+        <f t="shared" ref="C23:F23" si="0">SUM(C26:C27)</f>
         <v>258.27551767074192</v>
       </c>
       <c r="D23" s="24">
@@ -1598,7 +1699,7 @@
         <v>313.05756714522806</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -1618,12 +1719,12 @@
         <v>42</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="26">
         <v>0</v>
@@ -1641,15 +1742,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="26">
         <v>247.80281864766346</v>
@@ -1667,15 +1768,15 @@
         <v>313.05756714522806</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="26">
         <v>0</v>
@@ -1693,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -1707,7 +1808,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1717,9 +1818,9 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="22">
         <v>56</v>
@@ -1737,12 +1838,12 @@
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1750,14 +1851,14 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1868,7 @@
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1792,9 +1893,9 @@
         <v>41.10777484041936</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="24">
         <f>SUM(B40)</f>
@@ -1817,10 +1918,10 @@
         <v>1.2220351509893104</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +1946,7 @@
         <v>372.89579634913855</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
@@ -1865,12 +1966,12 @@
         <v>160</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="26">
         <v>28.645619621357039</v>
@@ -1888,15 +1989,15 @@
         <v>36.720629437779358</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="26">
         <v>4.3871454026400007</v>
@@ -1914,15 +2015,15 @@
         <v>4.3871454026400007</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="26">
         <v>1.2220351509893104</v>
@@ -1940,15 +2041,15 @@
         <v>1.2220351509893104</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="26">
         <v>11.780000851778885</v>
@@ -1966,15 +2067,15 @@
         <v>6.0303794691385519</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="26">
         <v>131.09912163499996</v>
@@ -1992,13 +2093,13 @@
         <v>366.86541688</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -2006,7 +2107,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2117,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>8</v>
       </c>
@@ -2041,9 +2142,9 @@
         <v>78.105125560850212</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="39">
         <v>67.466576630932906</v>
@@ -2061,13 +2162,13 @@
         <v>78.105125560850212</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2075,7 +2176,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -2085,49 +2186,59 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="38">
+        <f>SUM(B51:B52)</f>
         <v>6.9159505989965933</v>
       </c>
       <c r="C49" s="38">
+        <f t="shared" ref="C49:F49" si="5">SUM(C51:C52)</f>
         <v>7.1660694698396359</v>
       </c>
       <c r="D49" s="38">
+        <f t="shared" si="5"/>
         <v>7.4250112209429631</v>
       </c>
       <c r="E49" s="38">
+        <f t="shared" si="5"/>
         <v>7.687516451727971</v>
       </c>
       <c r="F49" s="38">
+        <f t="shared" si="5"/>
         <v>7.9498108770683125</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="38">
+        <f>SUM(B53:B55)</f>
         <v>156.14835244069593</v>
       </c>
       <c r="C50" s="38">
+        <f t="shared" ref="C50:F50" si="6">SUM(C53:C55)</f>
         <v>156.04550554563517</v>
       </c>
       <c r="D50" s="38">
+        <f t="shared" si="6"/>
         <v>156.64797521506952</v>
       </c>
       <c r="E50" s="38">
+        <f t="shared" si="6"/>
         <v>158.18569318102561</v>
       </c>
       <c r="F50" s="38">
+        <f t="shared" si="6"/>
         <v>159.46633691982075</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="39">
         <v>5.069279639993316</v>
@@ -2145,15 +2256,15 @@
         <v>6.1031399180650352</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="39">
         <v>1.8466709590032777</v>
@@ -2171,15 +2282,15 @@
         <v>1.8466709590032777</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="39">
         <v>24.750587904167407</v>
@@ -2197,15 +2308,15 @@
         <v>29.798376053624235</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="39">
         <v>129.72980367033199</v>
@@ -2223,15 +2334,15 @@
         <v>128</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="39">
         <v>1.6679608661965097</v>
@@ -2249,388 +2360,566 @@
         <v>1.6679608661965097</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="49"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="38">
+        <f>SUM(B60:B62)</f>
+        <v>264.2</v>
+      </c>
+      <c r="C58" s="38">
+        <f t="shared" ref="C58:F58" si="7">SUM(C60:C62)</f>
+        <v>295.2</v>
+      </c>
+      <c r="D58" s="38">
+        <f t="shared" si="7"/>
+        <v>316.2</v>
+      </c>
+      <c r="E58" s="38">
+        <f t="shared" si="7"/>
+        <v>337.4</v>
+      </c>
+      <c r="F58" s="38">
+        <f t="shared" si="7"/>
+        <v>358.59999999999997</v>
+      </c>
+      <c r="G58" s="31"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="38">
+        <f>SUM(B63:B66)</f>
+        <v>201.10000000000002</v>
+      </c>
+      <c r="C59" s="38">
+        <f t="shared" ref="C59:F59" si="8">SUM(C63:C66)</f>
+        <v>204.39999999999998</v>
+      </c>
+      <c r="D59" s="38">
+        <f t="shared" si="8"/>
+        <v>206.8</v>
+      </c>
+      <c r="E59" s="38">
+        <f t="shared" si="8"/>
+        <v>209.10000000000002</v>
+      </c>
+      <c r="F59" s="38">
+        <f t="shared" si="8"/>
+        <v>211.3</v>
+      </c>
+      <c r="G59" s="31"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="C60" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="D60" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="E60" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="F60" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="39">
+        <v>243.6</v>
+      </c>
+      <c r="C61" s="39">
+        <v>274</v>
+      </c>
+      <c r="D61" s="39">
+        <v>294.5</v>
+      </c>
+      <c r="E61" s="39">
+        <v>315.2</v>
+      </c>
+      <c r="F61" s="39">
+        <v>336</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="39">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C62" s="39">
+        <v>18.5</v>
+      </c>
+      <c r="D62" s="39">
+        <v>19</v>
+      </c>
+      <c r="E62" s="39">
+        <v>19.5</v>
+      </c>
+      <c r="F62" s="39">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="39">
+        <v>7.3</v>
+      </c>
+      <c r="C63" s="39">
+        <v>6.7</v>
+      </c>
+      <c r="D63" s="39">
+        <v>6.9</v>
+      </c>
+      <c r="E63" s="39">
+        <v>7</v>
+      </c>
+      <c r="F63" s="39">
+        <v>7.1</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="39">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="C64" s="39">
+        <v>145.6</v>
+      </c>
+      <c r="D64" s="39">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="E64" s="39">
+        <v>151</v>
+      </c>
+      <c r="F64" s="39">
+        <v>153.6</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="H64" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="C65" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="D65" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="E65" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="F65" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="G65" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="39">
+        <v>49.7</v>
+      </c>
+      <c r="C66" s="39">
+        <v>49.2</v>
+      </c>
+      <c r="D66" s="39">
+        <v>48.7</v>
+      </c>
+      <c r="E66" s="39">
+        <v>48.2</v>
+      </c>
+      <c r="F66" s="39">
+        <v>47.7</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="49"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="31"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B69" s="38">
+        <f>SUM(B71:B76)</f>
         <v>21.75361289330986</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C69" s="38">
+        <f t="shared" ref="C69:F69" si="9">SUM(C71:C76)</f>
         <v>21.084301087710372</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D69" s="38">
+        <f t="shared" si="9"/>
         <v>20.508832844825278</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E69" s="38">
+        <f t="shared" si="9"/>
         <v>21.776063192470616</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F69" s="38">
+        <f t="shared" si="9"/>
         <v>25.056200316168201</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B70" s="41">
         <v>76</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C70" s="41">
         <v>79</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D70" s="41">
         <v>83</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E70" s="41">
         <v>86</v>
       </c>
-      <c r="F59" s="41">
+      <c r="F70" s="41">
         <v>89</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="G70" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="26">
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="C71" s="26">
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="D71" s="26">
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="E71" s="26">
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="F71" s="26">
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="26">
-        <v>4.4970054851035162</v>
-      </c>
-      <c r="C60" s="26">
-        <v>4.4970054851035162</v>
-      </c>
-      <c r="D60" s="26">
-        <v>4.4970054851035162</v>
-      </c>
-      <c r="E60" s="26">
-        <v>4.4970054851035162</v>
-      </c>
-      <c r="F60" s="26">
-        <v>4.4970054851035162</v>
-      </c>
-      <c r="G60" s="31" t="s">
+      <c r="B72" s="26">
+        <v>3.7365593720751624</v>
+      </c>
+      <c r="C72" s="26">
+        <v>3.6916969606280312</v>
+      </c>
+      <c r="D72" s="26">
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="E72" s="26">
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="F72" s="26">
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="G72" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H60" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="H72" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="26">
-        <v>3.7365593720751624</v>
-      </c>
-      <c r="C61" s="26">
-        <v>3.6916969606280312</v>
-      </c>
-      <c r="D61" s="26">
-        <v>3.6474211922791118</v>
-      </c>
-      <c r="E61" s="26">
-        <v>3.6474211922791118</v>
-      </c>
-      <c r="F61" s="26">
-        <v>3.6474211922791118</v>
-      </c>
-      <c r="G61" s="31" t="s">
+      <c r="B73" s="26">
+        <v>1.1622005712080041</v>
+      </c>
+      <c r="C73" s="26">
+        <v>0.29055014280200103</v>
+      </c>
+      <c r="D73" s="26">
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="E73" s="26">
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="F73" s="26">
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="G73" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="H73" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="26">
-        <v>1.1622005712080041</v>
-      </c>
-      <c r="C62" s="26">
-        <v>0.29055014280200103</v>
-      </c>
-      <c r="D62" s="26">
-        <v>7.2637535700500258E-2</v>
-      </c>
-      <c r="E62" s="26">
-        <v>7.2637535700500258E-2</v>
-      </c>
-      <c r="F62" s="26">
-        <v>7.2637535700500258E-2</v>
-      </c>
-      <c r="G62" s="31" t="s">
+      <c r="B74" s="26">
+        <v>0</v>
+      </c>
+      <c r="C74" s="26">
+        <v>0</v>
+      </c>
+      <c r="D74" s="26">
+        <v>0</v>
+      </c>
+      <c r="E74" s="26">
+        <v>0</v>
+      </c>
+      <c r="F74" s="26">
+        <v>0</v>
+      </c>
+      <c r="G74" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="H74" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="26">
-        <v>0</v>
-      </c>
-      <c r="C63" s="26">
-        <v>0</v>
-      </c>
-      <c r="D63" s="26">
-        <v>0</v>
-      </c>
-      <c r="E63" s="26">
-        <v>0</v>
-      </c>
-      <c r="F63" s="26">
-        <v>0</v>
-      </c>
-      <c r="G63" s="31" t="s">
+      <c r="B75" s="26">
+        <v>0.26516387238354489</v>
+      </c>
+      <c r="C75" s="26">
+        <v>0.50662360200948142</v>
+      </c>
+      <c r="D75" s="26">
+        <v>1.1865809230266418</v>
+      </c>
+      <c r="E75" s="26">
+        <v>2.7803795785137853</v>
+      </c>
+      <c r="F75" s="26">
+        <v>6.5538607978718284</v>
+      </c>
+      <c r="G75" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="H75" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="26">
-        <v>0.26516387238354489</v>
-      </c>
-      <c r="C64" s="26">
-        <v>0.50662360200948142</v>
-      </c>
-      <c r="D64" s="26">
-        <v>1.1865809230266418</v>
-      </c>
-      <c r="E64" s="26">
-        <v>2.7803795785137853</v>
-      </c>
-      <c r="F64" s="26">
-        <v>6.5538607978718284</v>
-      </c>
-      <c r="G64" s="31" t="s">
+      <c r="B76" s="26">
+        <v>12.092683592539634</v>
+      </c>
+      <c r="C76" s="26">
+        <v>12.098424897167344</v>
+      </c>
+      <c r="D76" s="26">
+        <v>11.10518770871551</v>
+      </c>
+      <c r="E76" s="26">
+        <v>10.778619400873701</v>
+      </c>
+      <c r="F76" s="26">
+        <v>10.285275305213244</v>
+      </c>
+      <c r="G76" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="H76" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="26">
-        <v>12.092683592539634</v>
-      </c>
-      <c r="C65" s="26">
-        <v>12.098424897167344</v>
-      </c>
-      <c r="D65" s="26">
-        <v>11.10518770871551</v>
-      </c>
-      <c r="E65" s="26">
-        <v>10.778619400873701</v>
-      </c>
-      <c r="F65" s="26">
-        <v>10.285275305213244</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H65" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="3">
+      <c r="B79" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="B80" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="H80" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="H72" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H73" s="3">
+      <c r="B81" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H81" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="H77" s="3">
+      <c r="B82" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="H82" s="3">
         <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="3">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B23:F23 B34:F36" formulaRange="1"/>
+    <ignoredError sqref="B34:F36 B23:F23 B49:F50 B58:F59 B69:F69" formulaRange="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2639,44 +2928,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="8" width="17.625" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -2702,12 +2994,15 @@
       <c r="G2" s="45">
         <v>0</v>
       </c>
-      <c r="H2" s="42">
-        <f>Data!B59*10^12</f>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42">
+        <f>Data!B70*10^12</f>
         <v>76000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -2716,7 +3011,7 @@
         <v>33200000000000</v>
       </c>
       <c r="C3" s="43">
-        <f t="shared" ref="C3:H3" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
+        <f t="shared" ref="C3:I3" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
         <v>32400000000000</v>
       </c>
       <c r="D3" s="43">
@@ -2735,17 +3030,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
         <f t="shared" si="0"/>
         <v>76600000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
       <c r="B4" s="43">
-        <f t="shared" ref="B4:H6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
+        <f t="shared" ref="B4:I6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
         <v>35400000000000</v>
       </c>
       <c r="C4" s="43">
@@ -2768,12 +3067,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
         <f t="shared" si="1"/>
         <v>77200000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -2801,12 +3104,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
         <f t="shared" si="1"/>
         <v>77800000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -2834,12 +3141,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
         <f t="shared" si="1"/>
         <v>78400000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -2865,12 +3176,15 @@
       <c r="G7" s="45">
         <v>0</v>
       </c>
-      <c r="H7" s="42">
-        <f>Data!C59*10^12</f>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <f>Data!C70*10^12</f>
         <v>79000000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -2879,7 +3193,7 @@
         <v>43600000000000</v>
       </c>
       <c r="C8" s="43">
-        <f t="shared" ref="C8:H8" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
+        <f t="shared" ref="C8:I8" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
         <v>34600000000000</v>
       </c>
       <c r="D8" s="43">
@@ -2898,17 +3212,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
         <f t="shared" si="2"/>
         <v>79800000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
       <c r="B9" s="43">
-        <f t="shared" ref="B9:H11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
+        <f t="shared" ref="B9:I11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
         <v>45200000000000</v>
       </c>
       <c r="C9" s="43">
@@ -2931,12 +3249,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
         <f t="shared" si="3"/>
         <v>80600000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -2964,12 +3286,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
         <f t="shared" si="3"/>
         <v>81400000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -2997,12 +3323,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
         <f t="shared" si="3"/>
         <v>82200000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -3028,12 +3358,15 @@
       <c r="G12" s="45">
         <v>0</v>
       </c>
-      <c r="H12" s="42">
-        <f>Data!D59*10^12</f>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <f>Data!D70*10^12</f>
         <v>83000000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -3042,7 +3375,7 @@
         <v>50600000000000</v>
       </c>
       <c r="C13" s="43">
-        <f t="shared" ref="C13:H13" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
+        <f t="shared" ref="C13:I13" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
         <v>37600000000000</v>
       </c>
       <c r="D13" s="43">
@@ -3061,17 +3394,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
         <f t="shared" si="4"/>
         <v>83600000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
       <c r="B14" s="43">
-        <f t="shared" ref="B14:H16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
+        <f t="shared" ref="B14:I16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
         <v>51200000000000</v>
       </c>
       <c r="C14" s="43">
@@ -3094,12 +3431,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
         <f t="shared" si="5"/>
         <v>84200000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -3127,12 +3468,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
         <f t="shared" si="5"/>
         <v>84800000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -3160,12 +3505,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="43">
         <f t="shared" si="5"/>
         <v>85400000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -3191,12 +3540,15 @@
       <c r="G17" s="45">
         <v>0</v>
       </c>
-      <c r="H17" s="42">
-        <f>Data!E59*10^12</f>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <f>Data!E70*10^12</f>
         <v>86000000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -3205,7 +3557,7 @@
         <v>54000000000000</v>
       </c>
       <c r="C18" s="43">
-        <f t="shared" ref="C18:H18" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
+        <f t="shared" ref="C18:I18" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
         <v>40400000000000</v>
       </c>
       <c r="D18" s="43">
@@ -3224,17 +3576,21 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
         <f t="shared" si="6"/>
         <v>86600000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
       <c r="B19" s="43">
-        <f t="shared" ref="B19:H21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
+        <f t="shared" ref="B19:I21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
         <v>55000000000000</v>
       </c>
       <c r="C19" s="43">
@@ -3257,12 +3613,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="43">
         <f t="shared" si="7"/>
         <v>87200000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -3290,12 +3650,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
         <f t="shared" si="7"/>
         <v>87800000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -3323,12 +3687,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="43">
         <f t="shared" si="7"/>
         <v>88400000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -3354,8 +3722,11 @@
       <c r="G22" s="45">
         <v>0</v>
       </c>
-      <c r="H22" s="42">
-        <f>Data!F59*10^12</f>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <f>Data!F70*10^12</f>
         <v>89000000000000</v>
       </c>
     </row>
@@ -3369,44 +3740,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="8" width="17.625" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -3432,11 +3806,15 @@
         <f>Data!B50*10^12</f>
         <v>156148352440695.94</v>
       </c>
-      <c r="H2" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="42">
+        <f>Data!B59*10^12</f>
+        <v>201100000000000.03</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -3445,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="43">
-        <f t="shared" ref="C3:H3" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
+        <f t="shared" ref="C3:I3" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
         <v>249897358452279.16</v>
       </c>
       <c r="D3" s="46">
@@ -3464,17 +3842,21 @@
         <f t="shared" si="0"/>
         <v>156127783061683.78</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>201760000000000.03</v>
+      </c>
+      <c r="I3" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
       <c r="B4" s="46">
-        <f t="shared" ref="B4:H6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
+        <f t="shared" ref="B4:I6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
         <v>0</v>
       </c>
       <c r="C4" s="43">
@@ -3497,12 +3879,16 @@
         <f t="shared" si="1"/>
         <v>156107213682671.62</v>
       </c>
-      <c r="H4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="43">
+        <f t="shared" si="1"/>
+        <v>202420000000000</v>
+      </c>
+      <c r="I4" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -3530,12 +3916,16 @@
         <f t="shared" si="1"/>
         <v>156086644303659.47</v>
       </c>
-      <c r="H5" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="43">
+        <f t="shared" si="1"/>
+        <v>203080000000000</v>
+      </c>
+      <c r="I5" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -3563,12 +3953,16 @@
         <f t="shared" si="1"/>
         <v>156066074924647.31</v>
       </c>
-      <c r="H6" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="43">
+        <f t="shared" si="1"/>
+        <v>203739999999999.97</v>
+      </c>
+      <c r="I6" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -3594,11 +3988,15 @@
         <f>Data!C50*10^12</f>
         <v>156045505545635.16</v>
       </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="42">
+        <f>Data!C59*10^12</f>
+        <v>204399999999999.97</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -3607,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="43">
-        <f t="shared" ref="C8:H8" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
+        <f t="shared" ref="C8:I8" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
         <v>262943528342545.72</v>
       </c>
       <c r="D8" s="46">
@@ -3626,17 +4024,21 @@
         <f t="shared" si="2"/>
         <v>156473543072713.25</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204879999999999.97</v>
+      </c>
+      <c r="I8" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
       <c r="B9" s="46">
-        <f t="shared" ref="B9:H11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
+        <f t="shared" ref="B9:I11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
         <v>0</v>
       </c>
       <c r="C9" s="43">
@@ -3659,12 +4061,16 @@
         <f t="shared" si="3"/>
         <v>156901580599791.34</v>
       </c>
-      <c r="H9" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="43">
+        <f t="shared" si="3"/>
+        <v>205359999999999.97</v>
+      </c>
+      <c r="I9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -3692,12 +4098,16 @@
         <f t="shared" si="3"/>
         <v>157329618126869.44</v>
       </c>
-      <c r="H10" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="43">
+        <f t="shared" si="3"/>
+        <v>205840000000000</v>
+      </c>
+      <c r="I10" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -3725,12 +4135,16 @@
         <f t="shared" si="3"/>
         <v>157757655653947.53</v>
       </c>
-      <c r="H11" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="43">
+        <f t="shared" si="3"/>
+        <v>206320000000000</v>
+      </c>
+      <c r="I11" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -3756,11 +4170,15 @@
         <f>Data!E50*10^12</f>
         <v>158185693181025.62</v>
       </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="42">
+        <f>Data!D59*10^12</f>
+        <v>206800000000000</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -3769,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="43">
-        <f t="shared" ref="C13:H13" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
+        <f t="shared" ref="C13:I13" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
         <v>286741220034838.25</v>
       </c>
       <c r="D13" s="46">
@@ -3788,17 +4206,21 @@
         <f t="shared" si="4"/>
         <v>158185693181025.62</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="43">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207260000000000</v>
+      </c>
+      <c r="I13" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
       <c r="B14" s="46">
-        <f t="shared" ref="B14:H16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
+        <f t="shared" ref="B14:I16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
         <v>0</v>
       </c>
       <c r="C14" s="43">
@@ -3821,12 +4243,16 @@
         <f t="shared" si="5"/>
         <v>158185693181025.62</v>
       </c>
-      <c r="H14" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="43">
+        <f t="shared" si="5"/>
+        <v>207720000000000</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -3854,12 +4280,16 @@
         <f t="shared" si="5"/>
         <v>158185693181025.62</v>
       </c>
-      <c r="H15" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="43">
+        <f t="shared" si="5"/>
+        <v>208180000000000.03</v>
+      </c>
+      <c r="I15" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -3887,12 +4317,16 @@
         <f t="shared" si="5"/>
         <v>158185693181025.62</v>
       </c>
-      <c r="H16" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="43">
+        <f t="shared" si="5"/>
+        <v>208640000000000.03</v>
+      </c>
+      <c r="I16" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -3918,11 +4352,15 @@
         <f>Data!E50*10^12</f>
         <v>158185693181025.62</v>
       </c>
-      <c r="H17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="42">
+        <f>Data!E59*10^12</f>
+        <v>209100000000000.03</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -3931,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="43">
-        <f t="shared" ref="C18:H18" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
+        <f t="shared" ref="C18:I18" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
         <v>308406566273163.44</v>
       </c>
       <c r="D18" s="46">
@@ -3950,17 +4388,21 @@
         <f t="shared" si="6"/>
         <v>158441821928784.66</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="43">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>209540000000000.03</v>
+      </c>
+      <c r="I18" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
       <c r="B19" s="46">
-        <f t="shared" ref="B19:H21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
+        <f t="shared" ref="B19:I21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
         <v>0</v>
       </c>
       <c r="C19" s="43">
@@ -3983,12 +4425,16 @@
         <f t="shared" si="7"/>
         <v>158697950676543.69</v>
       </c>
-      <c r="H19" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="43">
+        <f t="shared" si="7"/>
+        <v>209980000000000.03</v>
+      </c>
+      <c r="I19" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -4016,12 +4462,16 @@
         <f t="shared" si="7"/>
         <v>158954079424302.69</v>
       </c>
-      <c r="H20" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="43">
+        <f t="shared" si="7"/>
+        <v>210420000000000</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -4049,12 +4499,16 @@
         <f t="shared" si="7"/>
         <v>159210208172061.72</v>
       </c>
-      <c r="H21" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="43">
+        <f t="shared" si="7"/>
+        <v>210860000000000</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -4080,7 +4534,11 @@
         <f>Data!F50*10^12</f>
         <v>159466336919820.75</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="42">
+        <f>Data!F59*10^12</f>
+        <v>211300000000000</v>
+      </c>
+      <c r="I22" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4094,44 +4552,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="8" width="17.625" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -4156,10 +4617,14 @@
         <v>6915950598996.5928</v>
       </c>
       <c r="H2" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Data!B58*10^12</f>
+        <v>264200000000000</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -4168,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="46">
-        <f t="shared" ref="C3:H3" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
+        <f t="shared" ref="C3:I6" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
         <v>0</v>
       </c>
       <c r="D3" s="46">
@@ -4189,15 +4654,19 @@
       </c>
       <c r="H3" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270400000000000</v>
+      </c>
+      <c r="I3" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
       <c r="B4" s="46">
-        <f t="shared" ref="B4:H6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
+        <f t="shared" ref="B4:I6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
         <v>0</v>
       </c>
       <c r="C4" s="46">
@@ -4221,11 +4690,15 @@
         <v>7015998147333.8096</v>
       </c>
       <c r="H4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>276600000000000</v>
+      </c>
+      <c r="I4" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -4254,11 +4727,15 @@
         <v>7066021921502.4189</v>
       </c>
       <c r="H5" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>282800000000000</v>
+      </c>
+      <c r="I5" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -4287,11 +4764,15 @@
         <v>7116045695671.0273</v>
       </c>
       <c r="H6" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>289000000000000</v>
+      </c>
+      <c r="I6" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -4316,10 +4797,14 @@
         <v>7166069469839.6357</v>
       </c>
       <c r="H7" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Data!C58*10^12</f>
+        <v>295200000000000</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -4328,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="46">
-        <f t="shared" ref="C8:H8" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
+        <f t="shared" ref="C8:I11" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
         <v>0</v>
       </c>
       <c r="D8" s="46">
@@ -4349,15 +4834,19 @@
       </c>
       <c r="H8" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299400000000000</v>
+      </c>
+      <c r="I8" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
       <c r="B9" s="46">
-        <f t="shared" ref="B9:H11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
+        <f t="shared" ref="B9:I11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
         <v>0</v>
       </c>
       <c r="C9" s="46">
@@ -4381,11 +4870,15 @@
         <v>7269646170280.9668</v>
       </c>
       <c r="H9" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>303600000000000</v>
+      </c>
+      <c r="I9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -4414,11 +4907,15 @@
         <v>7321434520501.6318</v>
       </c>
       <c r="H10" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>307800000000000</v>
+      </c>
+      <c r="I10" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -4447,11 +4944,15 @@
         <v>7373222870722.2979</v>
       </c>
       <c r="H11" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>312000000000000</v>
+      </c>
+      <c r="I11" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -4476,10 +4977,14 @@
         <v>7425011220942.9629</v>
       </c>
       <c r="H12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Data!D58*10^12</f>
+        <v>316200000000000</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -4488,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="46">
-        <f t="shared" ref="C13:H13" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
+        <f t="shared" ref="C13:I16" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
@@ -4509,15 +5014,19 @@
       </c>
       <c r="H13" s="46">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320440000000000</v>
+      </c>
+      <c r="I13" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
       <c r="B14" s="46">
-        <f t="shared" ref="B14:H16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
+        <f t="shared" ref="B14:I16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
         <v>0</v>
       </c>
       <c r="C14" s="46">
@@ -4541,11 +5050,15 @@
         <v>7530013313256.9658</v>
       </c>
       <c r="H14" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>324680000000000</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -4574,11 +5087,15 @@
         <v>7582514359413.9678</v>
       </c>
       <c r="H15" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>328920000000000</v>
+      </c>
+      <c r="I15" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -4607,11 +5124,15 @@
         <v>7635015405570.9687</v>
       </c>
       <c r="H16" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>333160000000000</v>
+      </c>
+      <c r="I16" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -4636,10 +5157,14 @@
         <v>7687516451727.9707</v>
       </c>
       <c r="H17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Data!E58*10^12</f>
+        <v>337400000000000</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -4648,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="46">
-        <f t="shared" ref="C18:H18" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
+        <f t="shared" ref="C18:I21" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
         <v>0</v>
       </c>
       <c r="D18" s="46">
@@ -4669,15 +5194,19 @@
       </c>
       <c r="H18" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>341640000000000</v>
+      </c>
+      <c r="I18" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
       <c r="B19" s="46">
-        <f t="shared" ref="B19:H21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
+        <f t="shared" ref="B19:I21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
         <v>0</v>
       </c>
       <c r="C19" s="46">
@@ -4701,11 +5230,15 @@
         <v>7792434221864.1074</v>
       </c>
       <c r="H19" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>345880000000000</v>
+      </c>
+      <c r="I19" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -4734,11 +5267,15 @@
         <v>7844893106932.1758</v>
       </c>
       <c r="H20" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>350119999999999.94</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -4767,11 +5304,15 @@
         <v>7897351992000.2441</v>
       </c>
       <c r="H21" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>354359999999999.94</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -4796,6 +5337,10 @@
         <v>7949810877068.3125</v>
       </c>
       <c r="H22" s="45">
+        <f>Data!F58*10^12</f>
+        <v>358599999999999.94</v>
+      </c>
+      <c r="I22" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4809,44 +5354,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="8" width="17.625" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -4869,12 +5417,15 @@
       <c r="G2" s="45">
         <v>0</v>
       </c>
-      <c r="H2" s="42">
-        <f>Data!B58*10^12</f>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42">
+        <f>Data!B69*10^12</f>
         <v>21753612893309.859</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -4883,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="46">
-        <f t="shared" ref="C3:H3" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
+        <f t="shared" ref="C3:I6" si="0">(C$7-C$2)/5*($A3-$A$2)+C$2</f>
         <v>0</v>
       </c>
       <c r="D3" s="46">
@@ -4902,17 +5453,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
         <f t="shared" si="0"/>
         <v>21619750532189.961</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
       <c r="B4" s="46">
-        <f t="shared" ref="B4:H6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
+        <f t="shared" ref="B4:I6" si="1">(B$7-B$2)/5*($A4-$A$2)+B$2</f>
         <v>0</v>
       </c>
       <c r="C4" s="46">
@@ -4935,12 +5490,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
         <f t="shared" si="1"/>
         <v>21485888171070.062</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -4968,12 +5527,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
         <f t="shared" si="1"/>
         <v>21352025809950.168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -5001,12 +5564,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
         <f t="shared" si="1"/>
         <v>21218163448830.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -5029,12 +5596,15 @@
       <c r="G7" s="45">
         <v>0</v>
       </c>
-      <c r="H7" s="42">
-        <f>Data!C58*10^12</f>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <f>Data!C69*10^12</f>
         <v>21084301087710.371</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -5043,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="46">
-        <f t="shared" ref="C8:H8" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
+        <f t="shared" ref="C8:I11" si="2">(C$12-C$7)/5*($A8-$A$7)+C$7</f>
         <v>0</v>
       </c>
       <c r="D8" s="46">
@@ -5062,17 +5632,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
         <f t="shared" si="2"/>
         <v>20969207439133.352</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
       <c r="B9" s="46">
-        <f t="shared" ref="B9:H11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
+        <f t="shared" ref="B9:I11" si="3">(B$12-B$7)/5*($A9-$A$7)+B$7</f>
         <v>0</v>
       </c>
       <c r="C9" s="46">
@@ -5095,12 +5669,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
         <f t="shared" si="3"/>
         <v>20854113790556.332</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -5128,12 +5706,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
         <f t="shared" si="3"/>
         <v>20739020141979.316</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -5161,12 +5743,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
         <f t="shared" si="3"/>
         <v>20623926493402.297</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -5189,12 +5775,15 @@
       <c r="G12" s="45">
         <v>0</v>
       </c>
-      <c r="H12" s="42">
-        <f>Data!D58*10^12</f>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <f>Data!D69*10^12</f>
         <v>20508832844825.277</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -5203,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="46">
-        <f t="shared" ref="C13:H13" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
+        <f t="shared" ref="C13:I16" si="4">(C$17-C$12)/5*($A13-$A$12)+C$12</f>
         <v>0</v>
       </c>
       <c r="D13" s="46">
@@ -5222,17 +5811,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
         <f t="shared" si="4"/>
         <v>20762278914354.344</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
       <c r="B14" s="46">
-        <f t="shared" ref="B14:H16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
+        <f t="shared" ref="B14:I16" si="5">(B$17-B$12)/5*($A14-$A$12)+B$12</f>
         <v>0</v>
       </c>
       <c r="C14" s="46">
@@ -5255,12 +5848,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
         <f t="shared" si="5"/>
         <v>21015724983883.414</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -5288,12 +5885,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
         <f t="shared" si="5"/>
         <v>21269171053412.48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -5321,12 +5922,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="43">
         <f t="shared" si="5"/>
         <v>21522617122941.551</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -5349,12 +5954,15 @@
       <c r="G17" s="45">
         <v>0</v>
       </c>
-      <c r="H17" s="42">
-        <f>Data!E58*10^12</f>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <f>Data!E69*10^12</f>
         <v>21776063192470.617</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -5363,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="46">
-        <f t="shared" ref="C18:H18" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
+        <f t="shared" ref="C18:I21" si="6">(C$22-C$17)/5*($A18-$A$17)+C$17</f>
         <v>0</v>
       </c>
       <c r="D18" s="46">
@@ -5382,17 +5990,21 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
         <f t="shared" si="6"/>
         <v>22432090617210.133</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
       <c r="B19" s="46">
-        <f t="shared" ref="B19:H21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
+        <f t="shared" ref="B19:I21" si="7">(B$22-B$17)/5*($A19-$A$17)+B$17</f>
         <v>0</v>
       </c>
       <c r="C19" s="46">
@@ -5415,12 +6027,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="43">
         <f t="shared" si="7"/>
         <v>23088118041949.652</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -5448,12 +6064,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
         <f t="shared" si="7"/>
         <v>23744145466689.168</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -5481,12 +6101,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="43">
         <f t="shared" si="7"/>
         <v>24400172891428.687</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -5509,8 +6133,11 @@
       <c r="G22" s="45">
         <v>0</v>
       </c>
-      <c r="H22" s="42">
-        <f>Data!F58*10^12</f>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <f>Data!F69*10^12</f>
         <v>25056200316168.203</v>
       </c>
     </row>

--- a/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
+++ b/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="14520" tabRatio="852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" tabRatio="852"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>Cement and other carbonates</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>U.S. Environmental Protection Agency</t>
-  </si>
-  <si>
-    <t>http://www.epa.gov/climatechange/Downloads/EPAactivities/DataAnnex_Global_NonCO2_Projections_Dec2012.zip</t>
   </si>
   <si>
     <t>U.S. State Department</t>
@@ -450,6 +447,12 @@
   <si>
     <t>Agriculture (g CO2e)</t>
   </si>
+  <si>
+    <t>2031-2050 projected via linear extrapolation from 2025-2030.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2016-08/dataannex_global_nonco2_projections_dec2012_0.zip</t>
+  </si>
 </sst>
 </file>
 
@@ -459,9 +462,23 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -657,261 +674,265 @@
   </borders>
   <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="123" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="123" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1382,109 +1403,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="44"/>
-    <col min="2" max="2" width="68.3984375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="44" customWidth="1"/>
     <col min="3" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="B3" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>117</v>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="53" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1495,96 +1520,96 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.59765625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="11" style="2"/>
-    <col min="7" max="7" width="44.69921875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="53.58203125" style="2" customWidth="1"/>
+    <col min="2" max="10" width="11" style="2"/>
+    <col min="11" max="11" width="44.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="28">
         <v>2010</v>
@@ -1601,14 +1626,26 @@
       <c r="F18" s="28">
         <v>2030</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G18" s="28">
+        <v>2035</v>
+      </c>
+      <c r="H18" s="28">
+        <v>2040</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2045</v>
+      </c>
+      <c r="J18" s="28">
+        <v>2050</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1617,8 +1654,12 @@
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -1637,14 +1678,26 @@
       <c r="F20" s="22">
         <v>58</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="G20" s="54">
+        <f>TREND($E20:$F20,$E$18:$F$18,G$18)</f>
+        <v>63</v>
+      </c>
+      <c r="H20" s="54">
+        <f t="shared" ref="H20:J20" si="0">TREND($E20:$F20,$E$18:$F$18,H$18)</f>
+        <v>68</v>
+      </c>
+      <c r="I20" s="54">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="J20" s="54">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="22"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1655,16 +1708,24 @@
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -1673,8 +1734,12 @@
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -1683,23 +1748,39 @@
         <v>247.80281864766346</v>
       </c>
       <c r="C23" s="24">
-        <f t="shared" ref="C23:F23" si="0">SUM(C26:C27)</f>
+        <f t="shared" ref="C23:F23" si="1">SUM(C26:C27)</f>
         <v>258.27551767074192</v>
       </c>
       <c r="D23" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>281.61557102976099</v>
       </c>
       <c r="E23" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>307.24381605514731</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>313.05756714522806</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G23" s="54">
+        <f>TREND($E23:$F23,$E$18:$F$18,G$18)</f>
+        <v>318.87131823530854</v>
+      </c>
+      <c r="H23" s="54">
+        <f t="shared" ref="H23:J27" si="2">TREND($E23:$F23,$E$18:$F$18,H$18)</f>
+        <v>324.68506932538958</v>
+      </c>
+      <c r="I23" s="54">
+        <f t="shared" si="2"/>
+        <v>330.49882041547016</v>
+      </c>
+      <c r="J23" s="54">
+        <f t="shared" si="2"/>
+        <v>336.31257150555075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -1718,39 +1799,71 @@
       <c r="F24" s="25">
         <v>42</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G24" s="54">
+        <f>TREND($E24:$F24,$E$18:$F$18,G$18)</f>
+        <v>44</v>
+      </c>
+      <c r="H24" s="54">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="I24" s="54">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J24" s="54">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="54">
+        <f t="shared" ref="G25:G27" si="3">TREND($E25:$F25,$E$18:$F$18,G$18)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B25" s="26">
-        <v>0</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="B26" s="26">
         <v>247.80281864766346</v>
@@ -1767,16 +1880,32 @@
       <c r="F26" s="26">
         <v>313.05756714522806</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="54">
+        <f t="shared" si="3"/>
+        <v>318.87131823530854</v>
+      </c>
+      <c r="H26" s="54">
+        <f t="shared" si="2"/>
+        <v>324.68506932538958</v>
+      </c>
+      <c r="I26" s="54">
+        <f t="shared" si="2"/>
+        <v>330.49882041547016</v>
+      </c>
+      <c r="J26" s="54">
+        <f t="shared" si="2"/>
+        <v>336.31257150555075</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="26">
         <v>0</v>
@@ -1793,22 +1922,42 @@
       <c r="F27" s="26">
         <v>0</v>
       </c>
-      <c r="G27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1817,10 +1966,14 @@
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="22">
         <v>56</v>
@@ -1837,28 +1990,52 @@
       <c r="F30" s="22">
         <v>65</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="54">
+        <f t="shared" ref="G30:J30" si="4">TREND($E30:$F30,$E$18:$F$18,G$18)</f>
+        <v>55</v>
+      </c>
+      <c r="H30" s="54">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="54">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="J30" s="54">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +2044,12 @@
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1877,23 +2058,39 @@
         <v>33.032765023997037</v>
       </c>
       <c r="C34" s="24">
-        <f t="shared" ref="C34:F34" si="1">SUM(C38:C39)</f>
+        <f t="shared" ref="C34:F34" si="5">SUM(C38:C39)</f>
         <v>34.855137864788603</v>
       </c>
       <c r="D34" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36.811096219745238</v>
       </c>
       <c r="E34" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>38.892621531273626</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>41.10777484041936</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="54">
+        <f t="shared" ref="G34:J42" si="6">TREND($E34:$F34,$E$18:$F$18,G$18)</f>
+        <v>43.322928149565087</v>
+      </c>
+      <c r="H34" s="54">
+        <f t="shared" si="6"/>
+        <v>45.538081458710849</v>
+      </c>
+      <c r="I34" s="54">
+        <f t="shared" si="6"/>
+        <v>47.753234767856497</v>
+      </c>
+      <c r="J34" s="54">
+        <f t="shared" si="6"/>
+        <v>49.96838807700226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
@@ -1902,26 +2099,42 @@
         <v>1.2220351509893104</v>
       </c>
       <c r="C35" s="24">
-        <f t="shared" ref="C35:F35" si="2">SUM(C40)</f>
+        <f t="shared" ref="C35:F35" si="7">SUM(C40)</f>
         <v>1.2220351509893104</v>
       </c>
       <c r="D35" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2220351509893104</v>
       </c>
       <c r="E35" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2220351509893104</v>
       </c>
       <c r="F35" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2220351509893104</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="H35" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="I35" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="J35" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -1930,23 +2143,39 @@
         <v>142.87912248677884</v>
       </c>
       <c r="C36" s="24">
-        <f t="shared" ref="C36:F36" si="3">SUM(C41:C42)</f>
+        <f t="shared" ref="C36:F36" si="8">SUM(C41:C42)</f>
         <v>195.98991619854107</v>
       </c>
       <c r="D36" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>257.30334754674669</v>
       </c>
       <c r="E36" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>331.22911870636119</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>372.89579634913855</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="54">
+        <f t="shared" si="6"/>
+        <v>414.56247399191852</v>
+      </c>
+      <c r="H36" s="54">
+        <f t="shared" si="6"/>
+        <v>456.22915163469588</v>
+      </c>
+      <c r="I36" s="54">
+        <f t="shared" si="6"/>
+        <v>497.89582927747324</v>
+      </c>
+      <c r="J36" s="54">
+        <f t="shared" si="6"/>
+        <v>539.5625069202506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
@@ -1965,13 +2194,29 @@
       <c r="F37" s="25">
         <v>160</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="54">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="H37" s="54">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="I37" s="54">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="J37" s="54">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="26">
         <v>28.645619621357039</v>
@@ -1988,16 +2233,32 @@
       <c r="F38" s="26">
         <v>36.720629437779358</v>
       </c>
-      <c r="G38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="54">
+        <f t="shared" si="6"/>
+        <v>38.935782746925156</v>
+      </c>
+      <c r="H38" s="54">
+        <f t="shared" si="6"/>
+        <v>41.150936056070918</v>
+      </c>
+      <c r="I38" s="54">
+        <f t="shared" si="6"/>
+        <v>43.366089365216567</v>
+      </c>
+      <c r="J38" s="54">
+        <f t="shared" si="6"/>
+        <v>45.581242674362329</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="26">
         <v>4.3871454026400007</v>
@@ -2014,16 +2275,32 @@
       <c r="F39" s="26">
         <v>4.3871454026400007</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39" s="54">
+        <f t="shared" si="6"/>
+        <v>4.3871454026400007</v>
+      </c>
+      <c r="H39" s="54">
+        <f t="shared" si="6"/>
+        <v>4.3871454026400007</v>
+      </c>
+      <c r="I39" s="54">
+        <f t="shared" si="6"/>
+        <v>4.3871454026400007</v>
+      </c>
+      <c r="J39" s="54">
+        <f t="shared" si="6"/>
+        <v>4.3871454026400007</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="26">
         <v>1.2220351509893104</v>
@@ -2040,16 +2317,32 @@
       <c r="F40" s="26">
         <v>1.2220351509893104</v>
       </c>
-      <c r="G40" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="H40" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="I40" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="J40" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2220351509893104</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="26">
         <v>11.780000851778885</v>
@@ -2066,16 +2359,32 @@
       <c r="F41" s="26">
         <v>6.0303794691385519</v>
       </c>
-      <c r="G41" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="54">
+        <f t="shared" si="6"/>
+        <v>4.163676036915831</v>
+      </c>
+      <c r="H41" s="54">
+        <f t="shared" si="6"/>
+        <v>2.29697260469311</v>
+      </c>
+      <c r="I41" s="54">
+        <f t="shared" si="6"/>
+        <v>0.43026917247038909</v>
+      </c>
+      <c r="J41" s="54">
+        <f t="shared" si="6"/>
+        <v>-1.4364342597523319</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="26">
         <v>131.09912163499996</v>
@@ -2092,22 +2401,42 @@
       <c r="F42" s="26">
         <v>366.86541688</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="54">
+        <f t="shared" si="6"/>
+        <v>410.39879795500019</v>
+      </c>
+      <c r="H42" s="54">
+        <f t="shared" si="6"/>
+        <v>453.93217903000186</v>
+      </c>
+      <c r="I42" s="54">
+        <f t="shared" si="6"/>
+        <v>497.46556010499989</v>
+      </c>
+      <c r="J42" s="54">
+        <f t="shared" si="6"/>
+        <v>540.99894118000157</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2116,8 +2445,12 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>8</v>
       </c>
@@ -2126,25 +2459,41 @@
         <v>67.466576630932906</v>
       </c>
       <c r="C45" s="38">
-        <f t="shared" ref="C45:F45" si="4">SUM(C46)</f>
+        <f t="shared" ref="C45:F45" si="9">SUM(C46)</f>
         <v>69.979198740008854</v>
       </c>
       <c r="D45" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>70.460339143874464</v>
       </c>
       <c r="E45" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>72.705661028580622</v>
       </c>
       <c r="F45" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>78.105125560850212</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="54">
+        <f t="shared" ref="G45:J46" si="10">TREND($E45:$F45,$E$18:$F$18,G$18)</f>
+        <v>83.504590093119987</v>
+      </c>
+      <c r="H45" s="54">
+        <f t="shared" si="10"/>
+        <v>88.904054625389563</v>
+      </c>
+      <c r="I45" s="54">
+        <f t="shared" si="10"/>
+        <v>94.303519157659139</v>
+      </c>
+      <c r="J45" s="54">
+        <f t="shared" si="10"/>
+        <v>99.702983689928715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="39">
         <v>67.466576630932906</v>
@@ -2161,22 +2510,42 @@
       <c r="F46" s="39">
         <v>78.105125560850212</v>
       </c>
-      <c r="G46" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="54">
+        <f t="shared" si="10"/>
+        <v>83.504590093119987</v>
+      </c>
+      <c r="H46" s="54">
+        <f t="shared" si="10"/>
+        <v>88.904054625389563</v>
+      </c>
+      <c r="I46" s="54">
+        <f t="shared" si="10"/>
+        <v>94.303519157659139</v>
+      </c>
+      <c r="J46" s="54">
+        <f t="shared" si="10"/>
+        <v>99.702983689928715</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -2185,8 +2554,12 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>10</v>
       </c>
@@ -2195,23 +2568,39 @@
         <v>6.9159505989965933</v>
       </c>
       <c r="C49" s="38">
-        <f t="shared" ref="C49:F49" si="5">SUM(C51:C52)</f>
+        <f t="shared" ref="C49:F49" si="11">SUM(C51:C52)</f>
         <v>7.1660694698396359</v>
       </c>
       <c r="D49" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.4250112209429631</v>
       </c>
       <c r="E49" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.687516451727971</v>
       </c>
       <c r="F49" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.9498108770683125</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="54">
+        <f t="shared" ref="G49:J55" si="12">TREND($E49:$F49,$E$18:$F$18,G$18)</f>
+        <v>8.2121053024086592</v>
+      </c>
+      <c r="H49" s="54">
+        <f t="shared" si="12"/>
+        <v>8.4743997277490024</v>
+      </c>
+      <c r="I49" s="54">
+        <f t="shared" si="12"/>
+        <v>8.7366941530893456</v>
+      </c>
+      <c r="J49" s="54">
+        <f t="shared" si="12"/>
+        <v>8.9989885784296888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>11</v>
       </c>
@@ -2220,25 +2609,41 @@
         <v>156.14835244069593</v>
       </c>
       <c r="C50" s="38">
-        <f t="shared" ref="C50:F50" si="6">SUM(C53:C55)</f>
+        <f t="shared" ref="C50:F50" si="13">SUM(C53:C55)</f>
         <v>156.04550554563517</v>
       </c>
       <c r="D50" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>156.64797521506952</v>
       </c>
       <c r="E50" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>158.18569318102561</v>
       </c>
       <c r="F50" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>159.46633691982075</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G50" s="54">
+        <f t="shared" si="12"/>
+        <v>160.74698065861583</v>
+      </c>
+      <c r="H50" s="54">
+        <f t="shared" si="12"/>
+        <v>162.02762439741105</v>
+      </c>
+      <c r="I50" s="54">
+        <f t="shared" si="12"/>
+        <v>163.30826813620615</v>
+      </c>
+      <c r="J50" s="54">
+        <f t="shared" si="12"/>
+        <v>164.58891187500126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="39">
         <v>5.069279639993316</v>
@@ -2255,16 +2660,32 @@
       <c r="F51" s="39">
         <v>6.1031399180650352</v>
       </c>
-      <c r="G51" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="G51" s="54">
+        <f t="shared" si="12"/>
+        <v>6.3654343434053828</v>
+      </c>
+      <c r="H51" s="54">
+        <f t="shared" si="12"/>
+        <v>6.627728768745726</v>
+      </c>
+      <c r="I51" s="54">
+        <f t="shared" si="12"/>
+        <v>6.8900231940860692</v>
+      </c>
+      <c r="J51" s="54">
+        <f t="shared" si="12"/>
+        <v>7.1523176194264124</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="39">
         <v>1.8466709590032777</v>
@@ -2281,16 +2702,32 @@
       <c r="F52" s="39">
         <v>1.8466709590032777</v>
       </c>
-      <c r="G52" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="54">
+        <f t="shared" si="12"/>
+        <v>1.8466709590032777</v>
+      </c>
+      <c r="H52" s="54">
+        <f t="shared" si="12"/>
+        <v>1.8466709590032777</v>
+      </c>
+      <c r="I52" s="54">
+        <f t="shared" si="12"/>
+        <v>1.8466709590032777</v>
+      </c>
+      <c r="J52" s="54">
+        <f t="shared" si="12"/>
+        <v>1.8466709590032777</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="39">
         <v>24.750587904167407</v>
@@ -2307,16 +2744,32 @@
       <c r="F53" s="39">
         <v>29.798376053624235</v>
       </c>
-      <c r="G53" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="54">
+        <f t="shared" si="12"/>
+        <v>31.079019792419444</v>
+      </c>
+      <c r="H53" s="54">
+        <f t="shared" si="12"/>
+        <v>32.359663531214551</v>
+      </c>
+      <c r="I53" s="54">
+        <f t="shared" si="12"/>
+        <v>33.640307270009771</v>
+      </c>
+      <c r="J53" s="54">
+        <f t="shared" si="12"/>
+        <v>34.920951008804877</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="39">
         <v>129.72980367033199</v>
@@ -2333,16 +2786,32 @@
       <c r="F54" s="39">
         <v>128</v>
       </c>
-      <c r="G54" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="G54" s="54">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="H54" s="54">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="I54" s="54">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="J54" s="54">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="39">
         <v>1.6679608661965097</v>
@@ -2359,88 +2828,144 @@
       <c r="F55" s="39">
         <v>1.6679608661965097</v>
       </c>
-      <c r="G55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="G55" s="54">
+        <f t="shared" si="12"/>
+        <v>1.6679608661965097</v>
+      </c>
+      <c r="H55" s="54">
+        <f t="shared" si="12"/>
+        <v>1.6679608661965097</v>
+      </c>
+      <c r="I55" s="54">
+        <f t="shared" si="12"/>
+        <v>1.6679608661965097</v>
+      </c>
+      <c r="J55" s="54">
+        <f t="shared" si="12"/>
+        <v>1.6679608661965097</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="49"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="31"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="31"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="38">
         <f>SUM(B60:B62)</f>
         <v>264.2</v>
       </c>
       <c r="C58" s="38">
-        <f t="shared" ref="C58:F58" si="7">SUM(C60:C62)</f>
+        <f t="shared" ref="C58:F58" si="14">SUM(C60:C62)</f>
         <v>295.2</v>
       </c>
       <c r="D58" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>316.2</v>
       </c>
       <c r="E58" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>337.4</v>
       </c>
       <c r="F58" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>358.59999999999997</v>
       </c>
-      <c r="G58" s="31"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="54">
+        <f t="shared" ref="G58:J66" si="15">TREND($E58:$F58,$E$18:$F$18,G$18)</f>
+        <v>379.79999999999927</v>
+      </c>
+      <c r="H58" s="54">
+        <f t="shared" si="15"/>
+        <v>401</v>
+      </c>
+      <c r="I58" s="54">
+        <f t="shared" si="15"/>
+        <v>422.20000000000073</v>
+      </c>
+      <c r="J58" s="54">
+        <f t="shared" si="15"/>
+        <v>443.39999999999964</v>
+      </c>
+      <c r="K58" s="31"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="38">
         <f>SUM(B63:B66)</f>
         <v>201.10000000000002</v>
       </c>
       <c r="C59" s="38">
-        <f t="shared" ref="C59:F59" si="8">SUM(C63:C66)</f>
+        <f t="shared" ref="C59:F59" si="16">SUM(C63:C66)</f>
         <v>204.39999999999998</v>
       </c>
       <c r="D59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>206.8</v>
       </c>
       <c r="E59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>209.10000000000002</v>
       </c>
       <c r="F59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>211.3</v>
       </c>
-      <c r="G59" s="31"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G59" s="54">
+        <f t="shared" si="15"/>
+        <v>213.50000000000011</v>
+      </c>
+      <c r="H59" s="54">
+        <f t="shared" si="15"/>
+        <v>215.70000000000005</v>
+      </c>
+      <c r="I59" s="54">
+        <f t="shared" si="15"/>
+        <v>217.90000000000009</v>
+      </c>
+      <c r="J59" s="54">
+        <f t="shared" si="15"/>
+        <v>220.10000000000002</v>
+      </c>
+      <c r="K59" s="31"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="39">
         <v>2.7</v>
@@ -2457,16 +2982,32 @@
       <c r="F60" s="39">
         <v>2.7</v>
       </c>
-      <c r="G60" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="G60" s="54">
+        <f t="shared" si="15"/>
+        <v>2.7</v>
+      </c>
+      <c r="H60" s="54">
+        <f t="shared" si="15"/>
+        <v>2.7</v>
+      </c>
+      <c r="I60" s="54">
+        <f t="shared" si="15"/>
+        <v>2.7</v>
+      </c>
+      <c r="J60" s="54">
+        <f t="shared" si="15"/>
+        <v>2.7</v>
+      </c>
+      <c r="K60" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="39">
         <v>243.6</v>
@@ -2483,16 +3024,32 @@
       <c r="F61" s="39">
         <v>336</v>
       </c>
-      <c r="G61" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="G61" s="54">
+        <f t="shared" si="15"/>
+        <v>356.80000000000109</v>
+      </c>
+      <c r="H61" s="54">
+        <f t="shared" si="15"/>
+        <v>377.60000000000036</v>
+      </c>
+      <c r="I61" s="54">
+        <f t="shared" si="15"/>
+        <v>398.40000000000146</v>
+      </c>
+      <c r="J61" s="54">
+        <f t="shared" si="15"/>
+        <v>419.20000000000073</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="L61" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="39">
         <v>17.899999999999999</v>
@@ -2509,16 +3066,32 @@
       <c r="F62" s="39">
         <v>19.899999999999999</v>
       </c>
-      <c r="G62" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="54">
+        <f t="shared" si="15"/>
+        <v>20.299999999999983</v>
+      </c>
+      <c r="H62" s="54">
+        <f t="shared" si="15"/>
+        <v>20.699999999999989</v>
+      </c>
+      <c r="I62" s="54">
+        <f t="shared" si="15"/>
+        <v>21.099999999999966</v>
+      </c>
+      <c r="J62" s="54">
+        <f t="shared" si="15"/>
+        <v>21.499999999999972</v>
+      </c>
+      <c r="K62" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L62" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="39">
         <v>7.3</v>
@@ -2535,16 +3108,32 @@
       <c r="F63" s="39">
         <v>7.1</v>
       </c>
-      <c r="G63" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="3">
+      <c r="G63" s="54">
+        <f t="shared" si="15"/>
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="H63" s="54">
+        <f t="shared" si="15"/>
+        <v>7.2999999999999972</v>
+      </c>
+      <c r="I63" s="54">
+        <f t="shared" si="15"/>
+        <v>7.3999999999999915</v>
+      </c>
+      <c r="J63" s="54">
+        <f t="shared" si="15"/>
+        <v>7.4999999999999929</v>
+      </c>
+      <c r="K63" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="L63" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="39">
         <v>141.19999999999999</v>
@@ -2561,16 +3150,32 @@
       <c r="F64" s="39">
         <v>153.6</v>
       </c>
-      <c r="G64" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="G64" s="54">
+        <f t="shared" si="15"/>
+        <v>156.20000000000005</v>
+      </c>
+      <c r="H64" s="54">
+        <f t="shared" si="15"/>
+        <v>158.79999999999995</v>
+      </c>
+      <c r="I64" s="54">
+        <f t="shared" si="15"/>
+        <v>161.40000000000009</v>
+      </c>
+      <c r="J64" s="54">
+        <f t="shared" si="15"/>
+        <v>164</v>
+      </c>
+      <c r="K64" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="L64" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="39">
         <v>2.9</v>
@@ -2587,16 +3192,32 @@
       <c r="F65" s="39">
         <v>2.9</v>
       </c>
-      <c r="G65" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="G65" s="54">
+        <f t="shared" si="15"/>
+        <v>2.9</v>
+      </c>
+      <c r="H65" s="54">
+        <f t="shared" si="15"/>
+        <v>2.9</v>
+      </c>
+      <c r="I65" s="54">
+        <f t="shared" si="15"/>
+        <v>2.9</v>
+      </c>
+      <c r="J65" s="54">
+        <f t="shared" si="15"/>
+        <v>2.9</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="L65" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="39">
         <v>49.7</v>
@@ -2613,23 +3234,43 @@
       <c r="F66" s="39">
         <v>47.7</v>
       </c>
-      <c r="G66" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="G66" s="54">
+        <f t="shared" si="15"/>
+        <v>47.200000000000017</v>
+      </c>
+      <c r="H66" s="54">
+        <f t="shared" si="15"/>
+        <v>46.700000000000017</v>
+      </c>
+      <c r="I66" s="54">
+        <f t="shared" si="15"/>
+        <v>46.200000000000017</v>
+      </c>
+      <c r="J66" s="54">
+        <f t="shared" si="15"/>
+        <v>45.700000000000017</v>
+      </c>
+      <c r="K66" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="49"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
       <c r="F67" s="39"/>
-      <c r="G67" s="31"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="31"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>12</v>
       </c>
@@ -2638,8 +3279,12 @@
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>13</v>
       </c>
@@ -2648,23 +3293,39 @@
         <v>21.75361289330986</v>
       </c>
       <c r="C69" s="38">
-        <f t="shared" ref="C69:F69" si="9">SUM(C71:C76)</f>
+        <f t="shared" ref="C69:F69" si="17">SUM(C71:C76)</f>
         <v>21.084301087710372</v>
       </c>
       <c r="D69" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>20.508832844825278</v>
       </c>
       <c r="E69" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>21.776063192470616</v>
       </c>
       <c r="F69" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>25.056200316168201</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G69" s="54">
+        <f t="shared" ref="G69:J76" si="18">TREND($E69:$F69,$E$18:$F$18,G$18)</f>
+        <v>28.336337439865929</v>
+      </c>
+      <c r="H69" s="54">
+        <f t="shared" si="18"/>
+        <v>31.616474563563543</v>
+      </c>
+      <c r="I69" s="54">
+        <f t="shared" si="18"/>
+        <v>34.896611687260929</v>
+      </c>
+      <c r="J69" s="54">
+        <f t="shared" si="18"/>
+        <v>38.176748810958543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>16</v>
       </c>
@@ -2683,13 +3344,29 @@
       <c r="F70" s="41">
         <v>89</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G70" s="54">
+        <f t="shared" si="18"/>
+        <v>92</v>
+      </c>
+      <c r="H70" s="54">
+        <f t="shared" si="18"/>
+        <v>95</v>
+      </c>
+      <c r="I70" s="54">
+        <f t="shared" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="J70" s="54">
+        <f t="shared" si="18"/>
+        <v>101</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="26">
         <v>4.4970054851035162</v>
@@ -2706,16 +3383,32 @@
       <c r="F71" s="26">
         <v>4.4970054851035162</v>
       </c>
-      <c r="G71" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H71" s="3">
+      <c r="G71" s="54">
+        <f t="shared" si="18"/>
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="H71" s="54">
+        <f t="shared" si="18"/>
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="I71" s="54">
+        <f t="shared" si="18"/>
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="J71" s="54">
+        <f t="shared" si="18"/>
+        <v>4.4970054851035162</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L71" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="26">
         <v>3.7365593720751624</v>
@@ -2732,16 +3425,32 @@
       <c r="F72" s="26">
         <v>3.6474211922791118</v>
       </c>
-      <c r="G72" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="G72" s="54">
+        <f t="shared" si="18"/>
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="H72" s="54">
+        <f t="shared" si="18"/>
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="I72" s="54">
+        <f t="shared" si="18"/>
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="J72" s="54">
+        <f t="shared" si="18"/>
+        <v>3.6474211922791118</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L72" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="26">
         <v>1.1622005712080041</v>
@@ -2758,42 +3467,74 @@
       <c r="F73" s="26">
         <v>7.2637535700500258E-2</v>
       </c>
-      <c r="G73" s="31" t="s">
+      <c r="G73" s="54">
+        <f t="shared" si="18"/>
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="H73" s="54">
+        <f t="shared" si="18"/>
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="I73" s="54">
+        <f t="shared" si="18"/>
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="J73" s="54">
+        <f t="shared" si="18"/>
+        <v>7.2637535700500258E-2</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="26">
+        <v>0</v>
+      </c>
+      <c r="C74" s="26">
+        <v>0</v>
+      </c>
+      <c r="D74" s="26">
+        <v>0</v>
+      </c>
+      <c r="E74" s="26">
+        <v>0</v>
+      </c>
+      <c r="F74" s="26">
+        <v>0</v>
+      </c>
+      <c r="G74" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
+      <c r="L74" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="B74" s="26">
-        <v>0</v>
-      </c>
-      <c r="C74" s="26">
-        <v>0</v>
-      </c>
-      <c r="D74" s="26">
-        <v>0</v>
-      </c>
-      <c r="E74" s="26">
-        <v>0</v>
-      </c>
-      <c r="F74" s="26">
-        <v>0</v>
-      </c>
-      <c r="G74" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="B75" s="26">
         <v>0.26516387238354489</v>
@@ -2810,16 +3551,32 @@
       <c r="F75" s="26">
         <v>6.5538607978718284</v>
       </c>
-      <c r="G75" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H75" s="3">
+      <c r="G75" s="54">
+        <f t="shared" si="18"/>
+        <v>10.327342017229739</v>
+      </c>
+      <c r="H75" s="54">
+        <f t="shared" si="18"/>
+        <v>14.100823236587757</v>
+      </c>
+      <c r="I75" s="54">
+        <f t="shared" si="18"/>
+        <v>17.874304455946003</v>
+      </c>
+      <c r="J75" s="54">
+        <f t="shared" si="18"/>
+        <v>21.647785675304021</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="26">
         <v>12.092683592539634</v>
@@ -2836,81 +3593,109 @@
       <c r="F76" s="26">
         <v>10.285275305213244</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="G76" s="54">
+        <f t="shared" si="18"/>
+        <v>9.7919312095527857</v>
+      </c>
+      <c r="H76" s="54">
+        <f t="shared" si="18"/>
+        <v>9.2985871138923244</v>
+      </c>
+      <c r="I76" s="54">
+        <f t="shared" si="18"/>
+        <v>8.8052430182318915</v>
+      </c>
+      <c r="J76" s="54">
+        <f t="shared" si="18"/>
+        <v>8.3118989225714301</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H76" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
-        <v>60</v>
-      </c>
       <c r="B78" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
-      <c r="H78" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" s="3">
+        <v>98</v>
+      </c>
+      <c r="L79" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="H80" s="3">
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="L80" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" s="3">
+        <v>98</v>
+      </c>
+      <c r="L81" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="H82" s="3">
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="L82" s="3">
         <v>21</v>
       </c>
     </row>
@@ -2928,64 +3713,64 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="2" max="9" width="17.58203125" style="37" customWidth="1"/>
     <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
       <c r="B2" s="42">
-        <f>Data!B20*10^12</f>
+        <f>Data!B$20*10^12</f>
         <v>31000000000000</v>
       </c>
       <c r="C2" s="42">
-        <f>Data!B24*10^12</f>
+        <f>Data!B$24*10^12</f>
         <v>32000000000000</v>
       </c>
       <c r="D2" s="42">
-        <f>Data!B30*10^12</f>
+        <f>Data!B$30*10^12</f>
         <v>56000000000000</v>
       </c>
       <c r="E2" s="42">
-        <f>Data!B37*10^12</f>
+        <f>Data!B$37*10^12</f>
         <v>133000000000000</v>
       </c>
       <c r="F2" s="45">
@@ -2998,11 +3783,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="42">
-        <f>Data!B70*10^12</f>
+        <f>Data!B$70*10^12</f>
         <v>76000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -3039,7 +3824,7 @@
         <v>76600000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
@@ -3076,7 +3861,7 @@
         <v>77200000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -3113,7 +3898,7 @@
         <v>77800000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -3150,24 +3935,24 @@
         <v>78400000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
       <c r="B7" s="42">
-        <f>Data!C20*10^12</f>
+        <f>Data!C$20*10^12</f>
         <v>42000000000000</v>
       </c>
       <c r="C7" s="42">
-        <f>Data!C24*10^12</f>
+        <f>Data!C$24*10^12</f>
         <v>34000000000000</v>
       </c>
       <c r="D7" s="42">
-        <f>Data!C30*10^12</f>
+        <f>Data!C$30*10^12</f>
         <v>72000000000000</v>
       </c>
       <c r="E7" s="42">
-        <f>Data!C37*10^12</f>
+        <f>Data!C$37*10^12</f>
         <v>141000000000000</v>
       </c>
       <c r="F7" s="45">
@@ -3180,11 +3965,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="42">
-        <f>Data!C70*10^12</f>
+        <f>Data!C$70*10^12</f>
         <v>79000000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -3221,7 +4006,7 @@
         <v>79800000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
@@ -3258,7 +4043,7 @@
         <v>80600000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -3295,7 +4080,7 @@
         <v>81400000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -3332,24 +4117,24 @@
         <v>82200000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
       <c r="B12" s="42">
-        <f>Data!D20*10^12</f>
+        <f>Data!D$20*10^12</f>
         <v>50000000000000</v>
       </c>
       <c r="C12" s="42">
-        <f>Data!D24*10^12</f>
+        <f>Data!D$24*10^12</f>
         <v>37000000000000</v>
       </c>
       <c r="D12" s="42">
-        <f>Data!D30*10^12</f>
+        <f>Data!D$30*10^12</f>
         <v>77000000000000</v>
       </c>
       <c r="E12" s="42">
-        <f>Data!D37*10^12</f>
+        <f>Data!D$37*10^12</f>
         <v>158000000000000</v>
       </c>
       <c r="F12" s="45">
@@ -3362,11 +4147,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="42">
-        <f>Data!D70*10^12</f>
+        <f>Data!D$70*10^12</f>
         <v>83000000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -3403,7 +4188,7 @@
         <v>83600000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
@@ -3440,7 +4225,7 @@
         <v>84200000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -3477,7 +4262,7 @@
         <v>84800000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -3514,24 +4299,24 @@
         <v>85400000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
       <c r="B17" s="42">
-        <f>Data!E20*10^12</f>
+        <f>Data!E$20*10^12</f>
         <v>53000000000000</v>
       </c>
       <c r="C17" s="42">
-        <f>Data!E24*10^12</f>
+        <f>Data!E$24*10^12</f>
         <v>40000000000000</v>
       </c>
       <c r="D17" s="42">
-        <f>Data!E30*10^12</f>
+        <f>Data!E$30*10^12</f>
         <v>75000000000000</v>
       </c>
       <c r="E17" s="42">
-        <f>Data!E37*10^12</f>
+        <f>Data!E$37*10^12</f>
         <v>162000000000000</v>
       </c>
       <c r="F17" s="45">
@@ -3544,11 +4329,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="42">
-        <f>Data!E70*10^12</f>
+        <f>Data!E$70*10^12</f>
         <v>86000000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -3585,7 +4370,7 @@
         <v>86600000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
@@ -3622,7 +4407,7 @@
         <v>87200000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -3659,7 +4444,7 @@
         <v>87800000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -3696,24 +4481,24 @@
         <v>88400000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
       <c r="B22" s="42">
-        <f>Data!F20*10^12</f>
+        <f>Data!F$20*10^12</f>
         <v>58000000000000</v>
       </c>
       <c r="C22" s="42">
-        <f>Data!F24*10^12</f>
+        <f>Data!F$24*10^12</f>
         <v>42000000000000</v>
       </c>
       <c r="D22" s="42">
-        <f>Data!F30*10^12</f>
+        <f>Data!F$30*10^12</f>
         <v>65000000000000</v>
       </c>
       <c r="E22" s="42">
-        <f>Data!F37*10^12</f>
+        <f>Data!F$37*10^12</f>
         <v>160000000000000</v>
       </c>
       <c r="F22" s="45">
@@ -3726,12 +4511,743 @@
         <v>0</v>
       </c>
       <c r="I22" s="42">
-        <f>Data!F70*10^12</f>
+        <f>Data!F$70*10^12</f>
         <v>89000000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>2031</v>
+      </c>
+      <c r="B23" s="43">
+        <f>(B$27-B$22)/5*($A23-$A$22)+B$22</f>
+        <v>59000000000000</v>
+      </c>
+      <c r="C23" s="43">
+        <f t="shared" ref="C23:I23" si="8">(C$27-C$22)/5*($A23-$A$22)+C$22</f>
+        <v>42400000000000</v>
+      </c>
+      <c r="D23" s="43">
+        <f t="shared" si="8"/>
+        <v>63000000000000</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="8"/>
+        <v>159600000000000</v>
+      </c>
+      <c r="F23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="8"/>
+        <v>89600000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="43">
+        <f t="shared" ref="B24:I26" si="9">(B$27-B$22)/5*($A24-$A$22)+B$22</f>
+        <v>60000000000000</v>
+      </c>
+      <c r="C24" s="43">
+        <f t="shared" si="9"/>
+        <v>42800000000000</v>
+      </c>
+      <c r="D24" s="43">
+        <f t="shared" si="9"/>
+        <v>61000000000000</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="9"/>
+        <v>159200000000000</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="9"/>
+        <v>90200000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
+        <v>2033</v>
+      </c>
+      <c r="B25" s="43">
+        <f t="shared" si="9"/>
+        <v>61000000000000</v>
+      </c>
+      <c r="C25" s="43">
+        <f t="shared" si="9"/>
+        <v>43200000000000</v>
+      </c>
+      <c r="D25" s="43">
+        <f t="shared" si="9"/>
+        <v>59000000000000</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="9"/>
+        <v>158800000000000</v>
+      </c>
+      <c r="F25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="9"/>
+        <v>90800000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="43">
+        <f t="shared" si="9"/>
+        <v>62000000000000</v>
+      </c>
+      <c r="C26" s="43">
+        <f t="shared" si="9"/>
+        <v>43600000000000</v>
+      </c>
+      <c r="D26" s="43">
+        <f t="shared" si="9"/>
+        <v>57000000000000</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="9"/>
+        <v>158400000000000</v>
+      </c>
+      <c r="F26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="9"/>
+        <v>91400000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>2035</v>
+      </c>
+      <c r="B27" s="42">
+        <f>Data!G$20*10^12</f>
+        <v>63000000000000</v>
+      </c>
+      <c r="C27" s="42">
+        <f>Data!G$24*10^12</f>
+        <v>44000000000000</v>
+      </c>
+      <c r="D27" s="42">
+        <f>Data!G$30*10^12</f>
+        <v>55000000000000</v>
+      </c>
+      <c r="E27" s="42">
+        <f>Data!G$37*10^12</f>
+        <v>158000000000000</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
+        <f>Data!G$70*10^12</f>
+        <v>92000000000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
+        <v>2036</v>
+      </c>
+      <c r="B28" s="43">
+        <f>(B$32-B$27)/5*($A28-$A$27)+B$27</f>
+        <v>64000000000000</v>
+      </c>
+      <c r="C28" s="43">
+        <f t="shared" ref="C28:I28" si="10">(C$32-C$27)/5*($A28-$A$27)+C$27</f>
+        <v>44400000000000</v>
+      </c>
+      <c r="D28" s="43">
+        <f t="shared" si="10"/>
+        <v>53000000000000</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="10"/>
+        <v>157600000000000</v>
+      </c>
+      <c r="F28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="43">
+        <f t="shared" si="10"/>
+        <v>92600000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2037</v>
+      </c>
+      <c r="B29" s="43">
+        <f t="shared" ref="B29:I31" si="11">(B$32-B$27)/5*($A29-$A$27)+B$27</f>
+        <v>65000000000000</v>
+      </c>
+      <c r="C29" s="43">
+        <f t="shared" si="11"/>
+        <v>44800000000000</v>
+      </c>
+      <c r="D29" s="43">
+        <f t="shared" si="11"/>
+        <v>51000000000000</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="11"/>
+        <v>157200000000000</v>
+      </c>
+      <c r="F29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="43">
+        <f t="shared" si="11"/>
+        <v>93200000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>2038</v>
+      </c>
+      <c r="B30" s="43">
+        <f t="shared" si="11"/>
+        <v>66000000000000</v>
+      </c>
+      <c r="C30" s="43">
+        <f t="shared" si="11"/>
+        <v>45200000000000</v>
+      </c>
+      <c r="D30" s="43">
+        <f t="shared" si="11"/>
+        <v>49000000000000</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="11"/>
+        <v>156800000000000</v>
+      </c>
+      <c r="F30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="43">
+        <f t="shared" si="11"/>
+        <v>93800000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="37">
+        <v>2039</v>
+      </c>
+      <c r="B31" s="43">
+        <f t="shared" si="11"/>
+        <v>67000000000000</v>
+      </c>
+      <c r="C31" s="43">
+        <f t="shared" si="11"/>
+        <v>45600000000000</v>
+      </c>
+      <c r="D31" s="43">
+        <f t="shared" si="11"/>
+        <v>47000000000000</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="11"/>
+        <v>156400000000000</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="43">
+        <f t="shared" si="11"/>
+        <v>94400000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="37">
+        <v>2040</v>
+      </c>
+      <c r="B32" s="42">
+        <f>Data!H$20*10^12</f>
+        <v>68000000000000</v>
+      </c>
+      <c r="C32" s="42">
+        <f>Data!H$24*10^12</f>
+        <v>46000000000000</v>
+      </c>
+      <c r="D32" s="42">
+        <f>Data!H$30*10^12</f>
+        <v>45000000000000</v>
+      </c>
+      <c r="E32" s="42">
+        <f>Data!H$37*10^12</f>
+        <v>156000000000000</v>
+      </c>
+      <c r="F32" s="45">
+        <v>0</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0</v>
+      </c>
+      <c r="H32" s="45">
+        <v>0</v>
+      </c>
+      <c r="I32" s="42">
+        <f>Data!H$70*10^12</f>
+        <v>95000000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="37">
+        <v>2041</v>
+      </c>
+      <c r="B33" s="43">
+        <f>(B$37-B$32)/5*($A33-$A$32)+B$32</f>
+        <v>69000000000000</v>
+      </c>
+      <c r="C33" s="43">
+        <f t="shared" ref="C33:I33" si="12">(C$37-C$32)/5*($A33-$A$32)+C$32</f>
+        <v>46400000000000</v>
+      </c>
+      <c r="D33" s="43">
+        <f t="shared" si="12"/>
+        <v>43000000000000</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" si="12"/>
+        <v>155600000000000</v>
+      </c>
+      <c r="F33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
+        <f t="shared" si="12"/>
+        <v>95600000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="37">
+        <v>2042</v>
+      </c>
+      <c r="B34" s="43">
+        <f t="shared" ref="B34:I36" si="13">(B$37-B$32)/5*($A34-$A$32)+B$32</f>
+        <v>70000000000000</v>
+      </c>
+      <c r="C34" s="43">
+        <f t="shared" si="13"/>
+        <v>46800000000000</v>
+      </c>
+      <c r="D34" s="43">
+        <f t="shared" si="13"/>
+        <v>41000000000000</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="13"/>
+        <v>155200000000000</v>
+      </c>
+      <c r="F34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="43">
+        <f t="shared" si="13"/>
+        <v>96200000000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="37">
+        <v>2043</v>
+      </c>
+      <c r="B35" s="43">
+        <f t="shared" si="13"/>
+        <v>71000000000000</v>
+      </c>
+      <c r="C35" s="43">
+        <f t="shared" si="13"/>
+        <v>47200000000000</v>
+      </c>
+      <c r="D35" s="43">
+        <f t="shared" si="13"/>
+        <v>39000000000000</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="13"/>
+        <v>154800000000000</v>
+      </c>
+      <c r="F35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
+        <f t="shared" si="13"/>
+        <v>96800000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
+        <v>2044</v>
+      </c>
+      <c r="B36" s="43">
+        <f t="shared" si="13"/>
+        <v>72000000000000</v>
+      </c>
+      <c r="C36" s="43">
+        <f t="shared" si="13"/>
+        <v>47600000000000</v>
+      </c>
+      <c r="D36" s="43">
+        <f t="shared" si="13"/>
+        <v>37000000000000</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="13"/>
+        <v>154400000000000</v>
+      </c>
+      <c r="F36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="43">
+        <f t="shared" si="13"/>
+        <v>97400000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="37">
+        <v>2045</v>
+      </c>
+      <c r="B37" s="42">
+        <f>Data!I$20*10^12</f>
+        <v>73000000000000</v>
+      </c>
+      <c r="C37" s="42">
+        <f>Data!I$24*10^12</f>
+        <v>48000000000000</v>
+      </c>
+      <c r="D37" s="42">
+        <f>Data!I$30*10^12</f>
+        <v>35000000000000</v>
+      </c>
+      <c r="E37" s="42">
+        <f>Data!I$37*10^12</f>
+        <v>154000000000000</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0</v>
+      </c>
+      <c r="G37" s="45">
+        <v>0</v>
+      </c>
+      <c r="H37" s="45">
+        <v>0</v>
+      </c>
+      <c r="I37" s="42">
+        <f>Data!I$70*10^12</f>
+        <v>98000000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="37">
+        <v>2046</v>
+      </c>
+      <c r="B38" s="43">
+        <f>(B$42-B$37)/5*($A38-$A$37)+B$37</f>
+        <v>74000000000000</v>
+      </c>
+      <c r="C38" s="43">
+        <f t="shared" ref="C38:I38" si="14">(C$42-C$37)/5*($A38-$A$37)+C$37</f>
+        <v>48400000000000</v>
+      </c>
+      <c r="D38" s="43">
+        <f t="shared" si="14"/>
+        <v>33000000000000</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="14"/>
+        <v>153600000000000</v>
+      </c>
+      <c r="F38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="43">
+        <f t="shared" si="14"/>
+        <v>98600000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="37">
+        <v>2047</v>
+      </c>
+      <c r="B39" s="43">
+        <f t="shared" ref="B39:I41" si="15">(B$42-B$37)/5*($A39-$A$37)+B$37</f>
+        <v>75000000000000</v>
+      </c>
+      <c r="C39" s="43">
+        <f t="shared" si="15"/>
+        <v>48800000000000</v>
+      </c>
+      <c r="D39" s="43">
+        <f t="shared" si="15"/>
+        <v>31000000000000</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="15"/>
+        <v>153200000000000</v>
+      </c>
+      <c r="F39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="43">
+        <f t="shared" si="15"/>
+        <v>99200000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="37">
+        <v>2048</v>
+      </c>
+      <c r="B40" s="43">
+        <f t="shared" si="15"/>
+        <v>76000000000000</v>
+      </c>
+      <c r="C40" s="43">
+        <f t="shared" si="15"/>
+        <v>49200000000000</v>
+      </c>
+      <c r="D40" s="43">
+        <f t="shared" si="15"/>
+        <v>29000000000000</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="15"/>
+        <v>152800000000000</v>
+      </c>
+      <c r="F40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="43">
+        <f t="shared" si="15"/>
+        <v>99800000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="37">
+        <v>2049</v>
+      </c>
+      <c r="B41" s="43">
+        <f t="shared" si="15"/>
+        <v>77000000000000</v>
+      </c>
+      <c r="C41" s="43">
+        <f t="shared" si="15"/>
+        <v>49600000000000</v>
+      </c>
+      <c r="D41" s="43">
+        <f t="shared" si="15"/>
+        <v>27000000000000</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="15"/>
+        <v>152400000000000</v>
+      </c>
+      <c r="F41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
+        <f t="shared" si="15"/>
+        <v>100400000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="37">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="42">
+        <f>Data!J$20*10^12</f>
+        <v>78000000000000</v>
+      </c>
+      <c r="C42" s="42">
+        <f>Data!J$24*10^12</f>
+        <v>50000000000000</v>
+      </c>
+      <c r="D42" s="42">
+        <f>Data!J$30*10^12</f>
+        <v>25000000000000</v>
+      </c>
+      <c r="E42" s="42">
+        <f>Data!J$37*10^12</f>
+        <v>152000000000000</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0</v>
+      </c>
+      <c r="G42" s="45">
+        <v>0</v>
+      </c>
+      <c r="H42" s="45">
+        <v>0</v>
+      </c>
+      <c r="I42" s="42">
+        <f>Data!J$70*10^12</f>
+        <v>101000000000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B32" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3740,47 +5256,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="2" max="9" width="17.58203125" style="37" customWidth="1"/>
     <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -3788,33 +5304,33 @@
         <v>0</v>
       </c>
       <c r="C2" s="42">
-        <f>Data!B23*10^12</f>
+        <f>Data!B$23*10^12</f>
         <v>247802818647663.47</v>
       </c>
       <c r="D2" s="45">
         <v>0</v>
       </c>
       <c r="E2" s="42">
-        <f>Data!B35*10^12</f>
+        <f>Data!B$35*10^12</f>
         <v>1222035150989.3103</v>
       </c>
       <c r="F2" s="42">
-        <f>Data!B45*10^12</f>
+        <f>Data!B$45*10^12</f>
         <v>67466576630932.906</v>
       </c>
       <c r="G2" s="42">
-        <f>Data!B50*10^12</f>
+        <f>Data!B$50*10^12</f>
         <v>156148352440695.94</v>
       </c>
       <c r="H2" s="42">
-        <f>Data!B59*10^12</f>
+        <f>Data!B$59*10^12</f>
         <v>201100000000000.03</v>
       </c>
       <c r="I2" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -3851,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
@@ -3888,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -3925,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -3962,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -3970,33 +5486,33 @@
         <v>0</v>
       </c>
       <c r="C7" s="42">
-        <f>Data!C23*10^12</f>
+        <f>Data!C$23*10^12</f>
         <v>258275517670741.91</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
       </c>
       <c r="E7" s="42">
-        <f>Data!C35*10^12</f>
+        <f>Data!C$35*10^12</f>
         <v>1222035150989.3103</v>
       </c>
       <c r="F7" s="42">
-        <f>Data!C45*10^12</f>
+        <f>Data!C$45*10^12</f>
         <v>69979198740008.852</v>
       </c>
       <c r="G7" s="42">
-        <f>Data!C50*10^12</f>
+        <f>Data!C$50*10^12</f>
         <v>156045505545635.16</v>
       </c>
       <c r="H7" s="42">
-        <f>Data!C59*10^12</f>
+        <f>Data!C$59*10^12</f>
         <v>204399999999999.97</v>
       </c>
       <c r="I7" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -4033,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
@@ -4070,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -4107,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -4144,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -4152,33 +5668,33 @@
         <v>0</v>
       </c>
       <c r="C12" s="42">
-        <f>Data!D23*10^12</f>
+        <f>Data!D$23*10^12</f>
         <v>281615571029761</v>
       </c>
       <c r="D12" s="45">
         <v>0</v>
       </c>
       <c r="E12" s="42">
-        <f>Data!D35*10^12</f>
+        <f>Data!D$35*10^12</f>
         <v>1222035150989.3103</v>
       </c>
       <c r="F12" s="42">
-        <f>Data!D45*10^12</f>
+        <f>Data!D$45*10^12</f>
         <v>70460339143874.469</v>
       </c>
       <c r="G12" s="42">
-        <f>Data!E50*10^12</f>
+        <f>Data!E$50*10^12</f>
         <v>158185693181025.62</v>
       </c>
       <c r="H12" s="42">
-        <f>Data!D59*10^12</f>
+        <f>Data!D$59*10^12</f>
         <v>206800000000000</v>
       </c>
       <c r="I12" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -4215,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
@@ -4252,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -4289,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -4326,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -4334,33 +5850,33 @@
         <v>0</v>
       </c>
       <c r="C17" s="42">
-        <f>Data!E23*10^12</f>
+        <f>Data!E$23*10^12</f>
         <v>307243816055147.31</v>
       </c>
       <c r="D17" s="45">
         <v>0</v>
       </c>
       <c r="E17" s="42">
-        <f>Data!E35*10^12</f>
+        <f>Data!E$35*10^12</f>
         <v>1222035150989.3103</v>
       </c>
       <c r="F17" s="42">
-        <f>Data!E45*10^12</f>
+        <f>Data!E$45*10^12</f>
         <v>72705661028580.625</v>
       </c>
       <c r="G17" s="42">
-        <f>Data!E50*10^12</f>
+        <f>Data!E$50*10^12</f>
         <v>158185693181025.62</v>
       </c>
       <c r="H17" s="42">
-        <f>Data!E59*10^12</f>
+        <f>Data!E$59*10^12</f>
         <v>209100000000000.03</v>
       </c>
       <c r="I17" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -4397,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
@@ -4434,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -4471,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -4508,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -4516,29 +6032,757 @@
         <v>0</v>
       </c>
       <c r="C22" s="42">
-        <f>Data!F23*10^12</f>
+        <f>Data!F$23*10^12</f>
         <v>313057567145228.06</v>
       </c>
       <c r="D22" s="45">
         <v>0</v>
       </c>
       <c r="E22" s="42">
-        <f>Data!F35*10^12</f>
+        <f>Data!F$35*10^12</f>
         <v>1222035150989.3103</v>
       </c>
       <c r="F22" s="42">
-        <f>Data!F45*10^12</f>
+        <f>Data!F$45*10^12</f>
         <v>78105125560850.219</v>
       </c>
       <c r="G22" s="42">
-        <f>Data!F50*10^12</f>
+        <f>Data!F$50*10^12</f>
         <v>159466336919820.75</v>
       </c>
       <c r="H22" s="42">
-        <f>Data!F59*10^12</f>
+        <f>Data!F$59*10^12</f>
         <v>211300000000000</v>
       </c>
       <c r="I22" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>2031</v>
+      </c>
+      <c r="B23" s="46">
+        <f>(B$27-B$22)/5*($A23-$A$22)+B$22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
+        <f t="shared" ref="C23:I23" si="8">(C$27-C$22)/5*($A23-$A$22)+C$22</f>
+        <v>314220317363244.19</v>
+      </c>
+      <c r="D23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="8"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F23" s="43">
+        <f t="shared" si="8"/>
+        <v>79185018467304.172</v>
+      </c>
+      <c r="G23" s="43">
+        <f t="shared" si="8"/>
+        <v>159722465667579.75</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="8"/>
+        <v>211740000000000.03</v>
+      </c>
+      <c r="I23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="46">
+        <f t="shared" ref="B24:I26" si="9">(B$27-B$22)/5*($A24-$A$22)+B$22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
+        <f t="shared" si="9"/>
+        <v>315383067581260.25</v>
+      </c>
+      <c r="D24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="9"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F24" s="43">
+        <f t="shared" si="9"/>
+        <v>80264911373758.125</v>
+      </c>
+      <c r="G24" s="43">
+        <f t="shared" si="9"/>
+        <v>159978594415338.78</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="9"/>
+        <v>212180000000000.06</v>
+      </c>
+      <c r="I24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
+        <v>2033</v>
+      </c>
+      <c r="B25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="43">
+        <f t="shared" si="9"/>
+        <v>316545817799276.37</v>
+      </c>
+      <c r="D25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="9"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="9"/>
+        <v>81344804280212.078</v>
+      </c>
+      <c r="G25" s="43">
+        <f t="shared" si="9"/>
+        <v>160234723163097.78</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="9"/>
+        <v>212620000000000.06</v>
+      </c>
+      <c r="I25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <f t="shared" si="9"/>
+        <v>317708568017292.44</v>
+      </c>
+      <c r="D26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="9"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F26" s="43">
+        <f t="shared" si="9"/>
+        <v>82424697186666.031</v>
+      </c>
+      <c r="G26" s="43">
+        <f t="shared" si="9"/>
+        <v>160490851910856.81</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="9"/>
+        <v>213060000000000.09</v>
+      </c>
+      <c r="I26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>2035</v>
+      </c>
+      <c r="B27" s="45">
+        <v>0</v>
+      </c>
+      <c r="C27" s="42">
+        <f>Data!G$23*10^12</f>
+        <v>318871318235308.56</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
+      <c r="E27" s="42">
+        <f>Data!G$35*10^12</f>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F27" s="42">
+        <f>Data!G$45*10^12</f>
+        <v>83504590093119.984</v>
+      </c>
+      <c r="G27" s="42">
+        <f>Data!G$50*10^12</f>
+        <v>160746980658615.81</v>
+      </c>
+      <c r="H27" s="42">
+        <f>Data!G$59*10^12</f>
+        <v>213500000000000.12</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
+        <v>2036</v>
+      </c>
+      <c r="B28" s="46">
+        <f>(B$32-B$27)/5*($A28-$A$27)+B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="43">
+        <f t="shared" ref="C28:I28" si="10">(C$32-C$27)/5*($A28-$A$27)+C$27</f>
+        <v>320034068453324.75</v>
+      </c>
+      <c r="D28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="10"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F28" s="43">
+        <f t="shared" si="10"/>
+        <v>84584482999573.906</v>
+      </c>
+      <c r="G28" s="43">
+        <f t="shared" si="10"/>
+        <v>161003109406374.84</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="10"/>
+        <v>213940000000000.09</v>
+      </c>
+      <c r="I28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2037</v>
+      </c>
+      <c r="B29" s="46">
+        <f t="shared" ref="B29:I31" si="11">(B$32-B$27)/5*($A29-$A$27)+B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="43">
+        <f t="shared" si="11"/>
+        <v>321196818671340.94</v>
+      </c>
+      <c r="D29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="11"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F29" s="43">
+        <f t="shared" si="11"/>
+        <v>85664375906027.812</v>
+      </c>
+      <c r="G29" s="43">
+        <f t="shared" si="11"/>
+        <v>161259238154133.91</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="11"/>
+        <v>214380000000000.09</v>
+      </c>
+      <c r="I29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>2038</v>
+      </c>
+      <c r="B30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="43">
+        <f t="shared" si="11"/>
+        <v>322359568889357.19</v>
+      </c>
+      <c r="D30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="11"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F30" s="43">
+        <f t="shared" si="11"/>
+        <v>86744268812481.734</v>
+      </c>
+      <c r="G30" s="43">
+        <f t="shared" si="11"/>
+        <v>161515366901892.94</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="11"/>
+        <v>214820000000000.06</v>
+      </c>
+      <c r="I30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="37">
+        <v>2039</v>
+      </c>
+      <c r="B31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="43">
+        <f t="shared" si="11"/>
+        <v>323522319107373.37</v>
+      </c>
+      <c r="D31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="11"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F31" s="43">
+        <f t="shared" si="11"/>
+        <v>87824161718935.641</v>
+      </c>
+      <c r="G31" s="43">
+        <f t="shared" si="11"/>
+        <v>161771495649652</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="11"/>
+        <v>215260000000000.06</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="37">
+        <v>2040</v>
+      </c>
+      <c r="B32" s="45">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42">
+        <f>Data!H$23*10^12</f>
+        <v>324685069325389.56</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0</v>
+      </c>
+      <c r="E32" s="42">
+        <f>Data!H$35*10^12</f>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F32" s="42">
+        <f>Data!H$45*10^12</f>
+        <v>88904054625389.562</v>
+      </c>
+      <c r="G32" s="42">
+        <f>Data!H$50*10^12</f>
+        <v>162027624397411.03</v>
+      </c>
+      <c r="H32" s="42">
+        <f>Data!H$59*10^12</f>
+        <v>215700000000000.03</v>
+      </c>
+      <c r="I32" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="37">
+        <v>2041</v>
+      </c>
+      <c r="B33" s="46">
+        <f>(B$37-B$32)/5*($A33-$A$32)+B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="43">
+        <f t="shared" ref="C33:I33" si="12">(C$37-C$32)/5*($A33-$A$32)+C$32</f>
+        <v>325847819543405.69</v>
+      </c>
+      <c r="D33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" si="12"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F33" s="43">
+        <f t="shared" si="12"/>
+        <v>89983947531843.484</v>
+      </c>
+      <c r="G33" s="43">
+        <f t="shared" si="12"/>
+        <v>162283753145170.06</v>
+      </c>
+      <c r="H33" s="43">
+        <f t="shared" si="12"/>
+        <v>216140000000000.03</v>
+      </c>
+      <c r="I33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="37">
+        <v>2042</v>
+      </c>
+      <c r="B34" s="46">
+        <f t="shared" ref="B34:I36" si="13">(B$37-B$32)/5*($A34-$A$32)+B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="43">
+        <f t="shared" si="13"/>
+        <v>327010569761421.81</v>
+      </c>
+      <c r="D34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="13"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F34" s="43">
+        <f t="shared" si="13"/>
+        <v>91063840438297.391</v>
+      </c>
+      <c r="G34" s="43">
+        <f t="shared" si="13"/>
+        <v>162539881892929.09</v>
+      </c>
+      <c r="H34" s="43">
+        <f t="shared" si="13"/>
+        <v>216580000000000.06</v>
+      </c>
+      <c r="I34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="37">
+        <v>2043</v>
+      </c>
+      <c r="B35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="43">
+        <f t="shared" si="13"/>
+        <v>328173319979437.94</v>
+      </c>
+      <c r="D35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="13"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F35" s="43">
+        <f t="shared" si="13"/>
+        <v>92143733344751.312</v>
+      </c>
+      <c r="G35" s="43">
+        <f t="shared" si="13"/>
+        <v>162796010640688.09</v>
+      </c>
+      <c r="H35" s="43">
+        <f t="shared" si="13"/>
+        <v>217020000000000.06</v>
+      </c>
+      <c r="I35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
+        <v>2044</v>
+      </c>
+      <c r="B36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="43">
+        <f t="shared" si="13"/>
+        <v>329336070197454.06</v>
+      </c>
+      <c r="D36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="13"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F36" s="43">
+        <f t="shared" si="13"/>
+        <v>93223626251205.219</v>
+      </c>
+      <c r="G36" s="43">
+        <f t="shared" si="13"/>
+        <v>163052139388447.12</v>
+      </c>
+      <c r="H36" s="43">
+        <f t="shared" si="13"/>
+        <v>217460000000000.09</v>
+      </c>
+      <c r="I36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="37">
+        <v>2045</v>
+      </c>
+      <c r="B37" s="45">
+        <v>0</v>
+      </c>
+      <c r="C37" s="42">
+        <f>Data!I$23*10^12</f>
+        <v>330498820415470.19</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="42">
+        <f>Data!I$35*10^12</f>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F37" s="42">
+        <f>Data!I$45*10^12</f>
+        <v>94303519157659.141</v>
+      </c>
+      <c r="G37" s="42">
+        <f>Data!I$50*10^12</f>
+        <v>163308268136206.16</v>
+      </c>
+      <c r="H37" s="42">
+        <f>Data!I$59*10^12</f>
+        <v>217900000000000.09</v>
+      </c>
+      <c r="I37" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="37">
+        <v>2046</v>
+      </c>
+      <c r="B38" s="46">
+        <f>(B$42-B$37)/5*($A38-$A$37)+B$37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="43">
+        <f t="shared" ref="C38:I38" si="14">(C$42-C$37)/5*($A38-$A$37)+C$37</f>
+        <v>331661570633486.31</v>
+      </c>
+      <c r="D38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="14"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F38" s="43">
+        <f t="shared" si="14"/>
+        <v>95383412064113.062</v>
+      </c>
+      <c r="G38" s="43">
+        <f t="shared" si="14"/>
+        <v>163564396883965.19</v>
+      </c>
+      <c r="H38" s="43">
+        <f t="shared" si="14"/>
+        <v>218340000000000.09</v>
+      </c>
+      <c r="I38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="37">
+        <v>2047</v>
+      </c>
+      <c r="B39" s="46">
+        <f t="shared" ref="B39:I41" si="15">(B$42-B$37)/5*($A39-$A$37)+B$37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="43">
+        <f t="shared" si="15"/>
+        <v>332824320851502.44</v>
+      </c>
+      <c r="D39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="15"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F39" s="43">
+        <f t="shared" si="15"/>
+        <v>96463304970566.969</v>
+      </c>
+      <c r="G39" s="43">
+        <f t="shared" si="15"/>
+        <v>163820525631724.19</v>
+      </c>
+      <c r="H39" s="43">
+        <f t="shared" si="15"/>
+        <v>218780000000000.06</v>
+      </c>
+      <c r="I39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="37">
+        <v>2048</v>
+      </c>
+      <c r="B40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="43">
+        <f t="shared" si="15"/>
+        <v>333987071069518.5</v>
+      </c>
+      <c r="D40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="15"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F40" s="43">
+        <f t="shared" si="15"/>
+        <v>97543197877020.891</v>
+      </c>
+      <c r="G40" s="43">
+        <f t="shared" si="15"/>
+        <v>164076654379483.22</v>
+      </c>
+      <c r="H40" s="43">
+        <f t="shared" si="15"/>
+        <v>219220000000000.06</v>
+      </c>
+      <c r="I40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="37">
+        <v>2049</v>
+      </c>
+      <c r="B41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="43">
+        <f t="shared" si="15"/>
+        <v>335149821287534.62</v>
+      </c>
+      <c r="D41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="15"/>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F41" s="43">
+        <f t="shared" si="15"/>
+        <v>98623090783474.797</v>
+      </c>
+      <c r="G41" s="43">
+        <f t="shared" si="15"/>
+        <v>164332783127242.22</v>
+      </c>
+      <c r="H41" s="43">
+        <f t="shared" si="15"/>
+        <v>219660000000000.03</v>
+      </c>
+      <c r="I41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="37">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0</v>
+      </c>
+      <c r="C42" s="42">
+        <f>Data!J$23*10^12</f>
+        <v>336312571505550.75</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42">
+        <f>Data!J$35*10^12</f>
+        <v>1222035150989.3103</v>
+      </c>
+      <c r="F42" s="42">
+        <f>Data!J$45*10^12</f>
+        <v>99702983689928.719</v>
+      </c>
+      <c r="G42" s="42">
+        <f>Data!J$50*10^12</f>
+        <v>164588911875001.25</v>
+      </c>
+      <c r="H42" s="42">
+        <f>Data!J$59*10^12</f>
+        <v>220100000000000.03</v>
+      </c>
+      <c r="I42" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4552,47 +6796,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="2" max="9" width="17.58203125" style="37" customWidth="1"/>
     <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -4606,25 +6850,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="42">
-        <f>Data!B34*10^12</f>
+        <f>Data!B$34*10^12</f>
         <v>33032765023997.035</v>
       </c>
       <c r="F2" s="45">
         <v>0</v>
       </c>
       <c r="G2" s="42">
-        <f>Data!B49*10^12</f>
+        <f>Data!B$49*10^12</f>
         <v>6915950598996.5928</v>
       </c>
-      <c r="H2" s="45">
-        <f>Data!B58*10^12</f>
+      <c r="H2" s="42">
+        <f>Data!B$58*10^12</f>
         <v>264200000000000</v>
       </c>
       <c r="I2" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -4652,7 +6896,7 @@
         <f t="shared" si="0"/>
         <v>6965974373165.2012</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="43">
         <f t="shared" si="0"/>
         <v>270400000000000</v>
       </c>
@@ -4661,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
@@ -4689,7 +6933,7 @@
         <f t="shared" si="1"/>
         <v>7015998147333.8096</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="43">
         <f t="shared" si="0"/>
         <v>276600000000000</v>
       </c>
@@ -4698,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -4726,7 +6970,7 @@
         <f t="shared" si="1"/>
         <v>7066021921502.4189</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="43">
         <f t="shared" si="0"/>
         <v>282800000000000</v>
       </c>
@@ -4735,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -4763,7 +7007,7 @@
         <f t="shared" si="1"/>
         <v>7116045695671.0273</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>289000000000000</v>
       </c>
@@ -4772,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -4786,25 +7030,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="42">
-        <f>Data!C34*10^12</f>
+        <f>Data!C$34*10^12</f>
         <v>34855137864788.602</v>
       </c>
       <c r="F7" s="45">
         <v>0</v>
       </c>
       <c r="G7" s="42">
-        <f>Data!C49*10^12</f>
+        <f>Data!C$49*10^12</f>
         <v>7166069469839.6357</v>
       </c>
-      <c r="H7" s="45">
-        <f>Data!C58*10^12</f>
+      <c r="H7" s="42">
+        <f>Data!C$58*10^12</f>
         <v>295200000000000</v>
       </c>
       <c r="I7" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -4832,7 +7076,7 @@
         <f t="shared" si="2"/>
         <v>7217857820060.3008</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="43">
         <f t="shared" si="2"/>
         <v>299400000000000</v>
       </c>
@@ -4841,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
@@ -4869,7 +7113,7 @@
         <f t="shared" si="3"/>
         <v>7269646170280.9668</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="43">
         <f t="shared" si="2"/>
         <v>303600000000000</v>
       </c>
@@ -4878,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -4906,7 +7150,7 @@
         <f t="shared" si="3"/>
         <v>7321434520501.6318</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="43">
         <f t="shared" si="2"/>
         <v>307800000000000</v>
       </c>
@@ -4915,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -4943,7 +7187,7 @@
         <f t="shared" si="3"/>
         <v>7373222870722.2979</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="43">
         <f t="shared" si="2"/>
         <v>312000000000000</v>
       </c>
@@ -4952,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -4966,25 +7210,25 @@
         <v>0</v>
       </c>
       <c r="E12" s="42">
-        <f>Data!D34*10^12</f>
+        <f>Data!D$34*10^12</f>
         <v>36811096219745.234</v>
       </c>
       <c r="F12" s="45">
         <v>0</v>
       </c>
       <c r="G12" s="42">
-        <f>Data!D49*10^12</f>
+        <f>Data!D$49*10^12</f>
         <v>7425011220942.9629</v>
       </c>
-      <c r="H12" s="45">
-        <f>Data!D58*10^12</f>
+      <c r="H12" s="42">
+        <f>Data!D$58*10^12</f>
         <v>316200000000000</v>
       </c>
       <c r="I12" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -5012,7 +7256,7 @@
         <f t="shared" si="4"/>
         <v>7477512267099.9648</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="43">
         <f t="shared" si="4"/>
         <v>320440000000000</v>
       </c>
@@ -5021,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
@@ -5049,7 +7293,7 @@
         <f t="shared" si="5"/>
         <v>7530013313256.9658</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="43">
         <f t="shared" si="4"/>
         <v>324680000000000</v>
       </c>
@@ -5058,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -5086,7 +7330,7 @@
         <f t="shared" si="5"/>
         <v>7582514359413.9678</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="43">
         <f t="shared" si="4"/>
         <v>328920000000000</v>
       </c>
@@ -5095,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -5123,7 +7367,7 @@
         <f t="shared" si="5"/>
         <v>7635015405570.9687</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="43">
         <f t="shared" si="4"/>
         <v>333160000000000</v>
       </c>
@@ -5132,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -5146,25 +7390,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="42">
-        <f>Data!E34*10^12</f>
+        <f>Data!E$34*10^12</f>
         <v>38892621531273.625</v>
       </c>
       <c r="F17" s="45">
         <v>0</v>
       </c>
       <c r="G17" s="42">
-        <f>Data!E49*10^12</f>
+        <f>Data!E$49*10^12</f>
         <v>7687516451727.9707</v>
       </c>
-      <c r="H17" s="45">
-        <f>Data!E58*10^12</f>
+      <c r="H17" s="42">
+        <f>Data!E$58*10^12</f>
         <v>337400000000000</v>
       </c>
       <c r="I17" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -5192,7 +7436,7 @@
         <f t="shared" si="6"/>
         <v>7739975336796.0391</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="43">
         <f t="shared" si="6"/>
         <v>341640000000000</v>
       </c>
@@ -5201,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
@@ -5229,7 +7473,7 @@
         <f t="shared" si="7"/>
         <v>7792434221864.1074</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="43">
         <f t="shared" si="6"/>
         <v>345880000000000</v>
       </c>
@@ -5238,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -5266,7 +7510,7 @@
         <f t="shared" si="7"/>
         <v>7844893106932.1758</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="43">
         <f t="shared" si="6"/>
         <v>350119999999999.94</v>
       </c>
@@ -5275,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -5303,7 +7547,7 @@
         <f t="shared" si="7"/>
         <v>7897351992000.2441</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="43">
         <f t="shared" si="6"/>
         <v>354359999999999.94</v>
       </c>
@@ -5312,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -5326,21 +7570,741 @@
         <v>0</v>
       </c>
       <c r="E22" s="42">
-        <f>Data!F34*10^12</f>
+        <f>Data!F$34*10^12</f>
         <v>41107774840419.359</v>
       </c>
       <c r="F22" s="45">
         <v>0</v>
       </c>
       <c r="G22" s="42">
-        <f>Data!F49*10^12</f>
+        <f>Data!F$49*10^12</f>
         <v>7949810877068.3125</v>
       </c>
-      <c r="H22" s="45">
-        <f>Data!F58*10^12</f>
+      <c r="H22" s="42">
+        <f>Data!F$58*10^12</f>
         <v>358599999999999.94</v>
       </c>
       <c r="I22" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>2031</v>
+      </c>
+      <c r="B23" s="46">
+        <f>(B$27-B$22)/5*($A23-$A$22)+B$22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="46">
+        <f t="shared" ref="C23:I23" si="8">(C$27-C$22)/5*($A23-$A$22)+C$22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="8"/>
+        <v>41550805502248.508</v>
+      </c>
+      <c r="F23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
+        <f t="shared" si="8"/>
+        <v>8002269762136.3818</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="8"/>
+        <v>362839999999999.81</v>
+      </c>
+      <c r="I23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="46">
+        <f t="shared" ref="B24:I26" si="9">(B$27-B$22)/5*($A24-$A$22)+B$22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="9"/>
+        <v>41993836164077.648</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <f t="shared" si="9"/>
+        <v>8054728647204.4512</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="9"/>
+        <v>367079999999999.69</v>
+      </c>
+      <c r="I24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
+        <v>2033</v>
+      </c>
+      <c r="B25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="9"/>
+        <v>42436866825906.797</v>
+      </c>
+      <c r="F25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <f t="shared" si="9"/>
+        <v>8107187532272.5205</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="9"/>
+        <v>371319999999999.5</v>
+      </c>
+      <c r="I25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="9"/>
+        <v>42879897487735.937</v>
+      </c>
+      <c r="F26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <f t="shared" si="9"/>
+        <v>8159646417340.5898</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="9"/>
+        <v>375559999999999.37</v>
+      </c>
+      <c r="I26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>2035</v>
+      </c>
+      <c r="B27" s="45">
+        <v>0</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
+      <c r="E27" s="42">
+        <f>Data!G$34*10^12</f>
+        <v>43322928149565.086</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0</v>
+      </c>
+      <c r="G27" s="42">
+        <f>Data!G$49*10^12</f>
+        <v>8212105302408.6592</v>
+      </c>
+      <c r="H27" s="42">
+        <f>Data!G$58*10^12</f>
+        <v>379799999999999.25</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
+        <v>2036</v>
+      </c>
+      <c r="B28" s="46">
+        <f>(B$32-B$27)/5*($A28-$A$27)+B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="46">
+        <f t="shared" ref="C28:I28" si="10">(C$32-C$27)/5*($A28-$A$27)+C$27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="10"/>
+        <v>43765958811394.242</v>
+      </c>
+      <c r="F28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <f t="shared" si="10"/>
+        <v>8264564187476.7275</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="10"/>
+        <v>384039999999999.37</v>
+      </c>
+      <c r="I28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2037</v>
+      </c>
+      <c r="B29" s="46">
+        <f t="shared" ref="B29:I31" si="11">(B$32-B$27)/5*($A29-$A$27)+B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="11"/>
+        <v>44208989473223.391</v>
+      </c>
+      <c r="F29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="43">
+        <f t="shared" si="11"/>
+        <v>8317023072544.7959</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="11"/>
+        <v>388279999999999.56</v>
+      </c>
+      <c r="I29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>2038</v>
+      </c>
+      <c r="B30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="11"/>
+        <v>44652020135052.547</v>
+      </c>
+      <c r="F30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
+        <f t="shared" si="11"/>
+        <v>8369481957612.8652</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="11"/>
+        <v>392519999999999.69</v>
+      </c>
+      <c r="I30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="37">
+        <v>2039</v>
+      </c>
+      <c r="B31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="11"/>
+        <v>45095050796881.695</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="43">
+        <f t="shared" si="11"/>
+        <v>8421940842680.9336</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="11"/>
+        <v>396759999999999.87</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="37">
+        <v>2040</v>
+      </c>
+      <c r="B32" s="45">
+        <v>0</v>
+      </c>
+      <c r="C32" s="45">
+        <v>0</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0</v>
+      </c>
+      <c r="E32" s="42">
+        <f>Data!H$34*10^12</f>
+        <v>45538081458710.852</v>
+      </c>
+      <c r="F32" s="45">
+        <v>0</v>
+      </c>
+      <c r="G32" s="42">
+        <f>Data!H$49*10^12</f>
+        <v>8474399727749.002</v>
+      </c>
+      <c r="H32" s="42">
+        <f>Data!H$58*10^12</f>
+        <v>401000000000000</v>
+      </c>
+      <c r="I32" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="37">
+        <v>2041</v>
+      </c>
+      <c r="B33" s="46">
+        <f>(B$37-B$32)/5*($A33-$A$32)+B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="46">
+        <f t="shared" ref="C33:I33" si="12">(C$37-C$32)/5*($A33-$A$32)+C$32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" si="12"/>
+        <v>45981112120539.984</v>
+      </c>
+      <c r="F33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="43">
+        <f t="shared" si="12"/>
+        <v>8526858612817.0703</v>
+      </c>
+      <c r="H33" s="43">
+        <f t="shared" si="12"/>
+        <v>405240000000000.12</v>
+      </c>
+      <c r="I33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="37">
+        <v>2042</v>
+      </c>
+      <c r="B34" s="46">
+        <f t="shared" ref="B34:I36" si="13">(B$37-B$32)/5*($A34-$A$32)+B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="13"/>
+        <v>46424142782369.109</v>
+      </c>
+      <c r="F34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="43">
+        <f t="shared" si="13"/>
+        <v>8579317497885.1396</v>
+      </c>
+      <c r="H34" s="43">
+        <f t="shared" si="13"/>
+        <v>409480000000000.31</v>
+      </c>
+      <c r="I34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="37">
+        <v>2043</v>
+      </c>
+      <c r="B35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="13"/>
+        <v>46867173444198.242</v>
+      </c>
+      <c r="F35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="43">
+        <f t="shared" si="13"/>
+        <v>8631776382953.208</v>
+      </c>
+      <c r="H35" s="43">
+        <f t="shared" si="13"/>
+        <v>413720000000000.44</v>
+      </c>
+      <c r="I35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
+        <v>2044</v>
+      </c>
+      <c r="B36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="13"/>
+        <v>47310204106027.367</v>
+      </c>
+      <c r="F36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="43">
+        <f t="shared" si="13"/>
+        <v>8684235268021.2773</v>
+      </c>
+      <c r="H36" s="43">
+        <f t="shared" si="13"/>
+        <v>417960000000000.62</v>
+      </c>
+      <c r="I36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="37">
+        <v>2045</v>
+      </c>
+      <c r="B37" s="45">
+        <v>0</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="42">
+        <f>Data!I$34*10^12</f>
+        <v>47753234767856.5</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0</v>
+      </c>
+      <c r="G37" s="42">
+        <f>Data!I$49*10^12</f>
+        <v>8736694153089.3457</v>
+      </c>
+      <c r="H37" s="42">
+        <f>Data!I$58*10^12</f>
+        <v>422200000000000.75</v>
+      </c>
+      <c r="I37" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="37">
+        <v>2046</v>
+      </c>
+      <c r="B38" s="46">
+        <f>(B$42-B$37)/5*($A38-$A$37)+B$37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="46">
+        <f t="shared" ref="C38:I38" si="14">(C$42-C$37)/5*($A38-$A$37)+C$37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="14"/>
+        <v>48196265429685.648</v>
+      </c>
+      <c r="F38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="43">
+        <f t="shared" si="14"/>
+        <v>8789153038157.4141</v>
+      </c>
+      <c r="H38" s="43">
+        <f t="shared" si="14"/>
+        <v>426440000000000.5</v>
+      </c>
+      <c r="I38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="37">
+        <v>2047</v>
+      </c>
+      <c r="B39" s="46">
+        <f t="shared" ref="B39:I41" si="15">(B$42-B$37)/5*($A39-$A$37)+B$37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="15"/>
+        <v>48639296091514.805</v>
+      </c>
+      <c r="F39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="43">
+        <f t="shared" si="15"/>
+        <v>8841611923225.4824</v>
+      </c>
+      <c r="H39" s="43">
+        <f t="shared" si="15"/>
+        <v>430680000000000.31</v>
+      </c>
+      <c r="I39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="37">
+        <v>2048</v>
+      </c>
+      <c r="B40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="15"/>
+        <v>49082326753343.953</v>
+      </c>
+      <c r="F40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="43">
+        <f t="shared" si="15"/>
+        <v>8894070808293.5527</v>
+      </c>
+      <c r="H40" s="43">
+        <f t="shared" si="15"/>
+        <v>434920000000000.06</v>
+      </c>
+      <c r="I40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="37">
+        <v>2049</v>
+      </c>
+      <c r="B41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="15"/>
+        <v>49525357415173.109</v>
+      </c>
+      <c r="F41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="43">
+        <f t="shared" si="15"/>
+        <v>8946529693361.6211</v>
+      </c>
+      <c r="H41" s="43">
+        <f t="shared" si="15"/>
+        <v>439159999999999.87</v>
+      </c>
+      <c r="I41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="37">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0</v>
+      </c>
+      <c r="C42" s="45">
+        <v>0</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42">
+        <f>Data!J$34*10^12</f>
+        <v>49968388077002.258</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0</v>
+      </c>
+      <c r="G42" s="42">
+        <f>Data!J$49*10^12</f>
+        <v>8998988578429.6895</v>
+      </c>
+      <c r="H42" s="42">
+        <f>Data!J$58*10^12</f>
+        <v>443399999999999.62</v>
+      </c>
+      <c r="I42" s="45">
         <v>0</v>
       </c>
     </row>
@@ -5354,47 +8318,47 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="9" width="17.59765625" style="37" customWidth="1"/>
+    <col min="2" max="9" width="17.58203125" style="37" customWidth="1"/>
     <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
         <v>2010</v>
       </c>
@@ -5408,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="42">
-        <f>Data!B36*10^12</f>
+        <f>Data!B$36*10^12</f>
         <v>142879122486778.84</v>
       </c>
       <c r="F2" s="45">
@@ -5421,11 +8385,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="42">
-        <f>Data!B69*10^12</f>
+        <f>Data!B$69*10^12</f>
         <v>21753612893309.859</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="37">
         <v>2011</v>
       </c>
@@ -5462,7 +8426,7 @@
         <v>21619750532189.961</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="37">
         <v>2012</v>
       </c>
@@ -5499,7 +8463,7 @@
         <v>21485888171070.062</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>2013</v>
       </c>
@@ -5536,7 +8500,7 @@
         <v>21352025809950.168</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>2014</v>
       </c>
@@ -5573,7 +8537,7 @@
         <v>21218163448830.27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="37">
         <v>2015</v>
       </c>
@@ -5587,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="42">
-        <f>Data!C36*10^12</f>
+        <f>Data!C$36*10^12</f>
         <v>195989916198541.06</v>
       </c>
       <c r="F7" s="45">
@@ -5600,11 +8564,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="42">
-        <f>Data!C69*10^12</f>
+        <f>Data!C$69*10^12</f>
         <v>21084301087710.371</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="37">
         <v>2016</v>
       </c>
@@ -5641,7 +8605,7 @@
         <v>20969207439133.352</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="37">
         <v>2017</v>
       </c>
@@ -5678,7 +8642,7 @@
         <v>20854113790556.332</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="37">
         <v>2018</v>
       </c>
@@ -5715,7 +8679,7 @@
         <v>20739020141979.316</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="37">
         <v>2019</v>
       </c>
@@ -5752,7 +8716,7 @@
         <v>20623926493402.297</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="37">
         <v>2020</v>
       </c>
@@ -5766,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="42">
-        <f>Data!D36*10^12</f>
+        <f>Data!D$36*10^12</f>
         <v>257303347546746.69</v>
       </c>
       <c r="F12" s="45">
@@ -5779,11 +8743,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="42">
-        <f>Data!D69*10^12</f>
+        <f>Data!D$69*10^12</f>
         <v>20508832844825.277</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="37">
         <v>2021</v>
       </c>
@@ -5820,7 +8784,7 @@
         <v>20762278914354.344</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="37">
         <v>2022</v>
       </c>
@@ -5857,7 +8821,7 @@
         <v>21015724983883.414</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>2023</v>
       </c>
@@ -5894,7 +8858,7 @@
         <v>21269171053412.48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="37">
         <v>2024</v>
       </c>
@@ -5931,7 +8895,7 @@
         <v>21522617122941.551</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
         <v>2025</v>
       </c>
@@ -5945,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="42">
-        <f>Data!E36*10^12</f>
+        <f>Data!E$36*10^12</f>
         <v>331229118706361.19</v>
       </c>
       <c r="F17" s="45">
@@ -5958,11 +8922,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="42">
-        <f>Data!E69*10^12</f>
+        <f>Data!E$69*10^12</f>
         <v>21776063192470.617</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
         <v>2026</v>
       </c>
@@ -5999,7 +8963,7 @@
         <v>22432090617210.133</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
         <v>2027</v>
       </c>
@@ -6036,7 +9000,7 @@
         <v>23088118041949.652</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
         <v>2028</v>
       </c>
@@ -6073,7 +9037,7 @@
         <v>23744145466689.168</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
         <v>2029</v>
       </c>
@@ -6110,7 +9074,7 @@
         <v>24400172891428.687</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
         <v>2030</v>
       </c>
@@ -6124,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="42">
-        <f>Data!F36*10^12</f>
+        <f>Data!F$36*10^12</f>
         <v>372895796349138.56</v>
       </c>
       <c r="F22" s="45">
@@ -6137,8 +9101,724 @@
         <v>0</v>
       </c>
       <c r="I22" s="42">
-        <f>Data!F69*10^12</f>
+        <f>Data!F$69*10^12</f>
         <v>25056200316168.203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>2031</v>
+      </c>
+      <c r="B23" s="46">
+        <f>(B$27-B$22)/5*($A23-$A$22)+B$22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="46">
+        <f t="shared" ref="C23:I23" si="8">(C$27-C$22)/5*($A23-$A$22)+C$22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="8"/>
+        <v>381229131877694.56</v>
+      </c>
+      <c r="F23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="8"/>
+        <v>25712227740907.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="46">
+        <f t="shared" ref="B24:I26" si="9">(B$27-B$22)/5*($A24-$A$22)+B$22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="9"/>
+        <v>389562467406250.56</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="9"/>
+        <v>26368255165647.293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
+        <v>2033</v>
+      </c>
+      <c r="B25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="9"/>
+        <v>397895802934806.5</v>
+      </c>
+      <c r="F25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="9"/>
+        <v>27024282590386.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="9"/>
+        <v>406229138463362.5</v>
+      </c>
+      <c r="F26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="9"/>
+        <v>27680310015126.383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>2035</v>
+      </c>
+      <c r="B27" s="45">
+        <v>0</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
+      <c r="E27" s="42">
+        <f>Data!G$36*10^12</f>
+        <v>414562473991918.5</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
+        <f>Data!G$69*10^12</f>
+        <v>28336337439865.93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
+        <v>2036</v>
+      </c>
+      <c r="B28" s="46">
+        <f>(B$32-B$27)/5*($A28-$A$27)+B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="46">
+        <f t="shared" ref="C28:I28" si="10">(C$32-C$27)/5*($A28-$A$27)+C$27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="10"/>
+        <v>422895809520474</v>
+      </c>
+      <c r="F28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="43">
+        <f t="shared" si="10"/>
+        <v>28992364864605.453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2037</v>
+      </c>
+      <c r="B29" s="46">
+        <f t="shared" ref="B29:I31" si="11">(B$32-B$27)/5*($A29-$A$27)+B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="11"/>
+        <v>431229145049029.44</v>
+      </c>
+      <c r="F29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="43">
+        <f t="shared" si="11"/>
+        <v>29648392289344.977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>2038</v>
+      </c>
+      <c r="B30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="11"/>
+        <v>439562480577584.94</v>
+      </c>
+      <c r="F30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="43">
+        <f t="shared" si="11"/>
+        <v>30304419714084.496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="37">
+        <v>2039</v>
+      </c>
+      <c r="B31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="11"/>
+        <v>447895816106140.37</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="43">
+        <f t="shared" si="11"/>
+        <v>30960447138824.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="37">
+        <v>2040</v>
+      </c>
+      <c r="B32" s="45">
+        <v>0</v>
+      </c>
+      <c r="C32" s="45">
+        <v>0</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0</v>
+      </c>
+      <c r="E32" s="42">
+        <f>Data!H$36*10^12</f>
+        <v>456229151634695.87</v>
+      </c>
+      <c r="F32" s="45">
+        <v>0</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0</v>
+      </c>
+      <c r="H32" s="45">
+        <v>0</v>
+      </c>
+      <c r="I32" s="42">
+        <f>Data!H$69*10^12</f>
+        <v>31616474563563.543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="37">
+        <v>2041</v>
+      </c>
+      <c r="B33" s="46">
+        <f>(B$37-B$32)/5*($A33-$A$32)+B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="46">
+        <f t="shared" ref="C33:I33" si="12">(C$37-C$32)/5*($A33-$A$32)+C$32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" si="12"/>
+        <v>464562487163251.37</v>
+      </c>
+      <c r="F33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
+        <f t="shared" si="12"/>
+        <v>32272501988303.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="37">
+        <v>2042</v>
+      </c>
+      <c r="B34" s="46">
+        <f t="shared" ref="B34:I36" si="13">(B$37-B$32)/5*($A34-$A$32)+B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="13"/>
+        <v>472895822691806.81</v>
+      </c>
+      <c r="F34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="43">
+        <f t="shared" si="13"/>
+        <v>32928529413042.496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="37">
+        <v>2043</v>
+      </c>
+      <c r="B35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="13"/>
+        <v>481229158220362.31</v>
+      </c>
+      <c r="F35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
+        <f t="shared" si="13"/>
+        <v>33584556837781.977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
+        <v>2044</v>
+      </c>
+      <c r="B36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="13"/>
+        <v>489562493748917.75</v>
+      </c>
+      <c r="F36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="43">
+        <f t="shared" si="13"/>
+        <v>34240584262521.453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="37">
+        <v>2045</v>
+      </c>
+      <c r="B37" s="45">
+        <v>0</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="42">
+        <f>Data!I$36*10^12</f>
+        <v>497895829277473.25</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0</v>
+      </c>
+      <c r="G37" s="45">
+        <v>0</v>
+      </c>
+      <c r="H37" s="45">
+        <v>0</v>
+      </c>
+      <c r="I37" s="42">
+        <f>Data!I$69*10^12</f>
+        <v>34896611687260.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="37">
+        <v>2046</v>
+      </c>
+      <c r="B38" s="46">
+        <f>(B$42-B$37)/5*($A38-$A$37)+B$37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="46">
+        <f t="shared" ref="C38:I38" si="14">(C$42-C$37)/5*($A38-$A$37)+C$37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="14"/>
+        <v>506229164806028.75</v>
+      </c>
+      <c r="F38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="43">
+        <f t="shared" si="14"/>
+        <v>35552639112000.453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="37">
+        <v>2047</v>
+      </c>
+      <c r="B39" s="46">
+        <f t="shared" ref="B39:I41" si="15">(B$42-B$37)/5*($A39-$A$37)+B$37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="15"/>
+        <v>514562500334584.19</v>
+      </c>
+      <c r="F39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="43">
+        <f t="shared" si="15"/>
+        <v>36208666536739.977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="37">
+        <v>2048</v>
+      </c>
+      <c r="B40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="15"/>
+        <v>522895835863139.69</v>
+      </c>
+      <c r="F40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="43">
+        <f t="shared" si="15"/>
+        <v>36864693961479.492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="37">
+        <v>2049</v>
+      </c>
+      <c r="B41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="15"/>
+        <v>531229171391695.12</v>
+      </c>
+      <c r="F41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
+        <f t="shared" si="15"/>
+        <v>37520721386219.016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="37">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0</v>
+      </c>
+      <c r="C42" s="45">
+        <v>0</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42">
+        <f>Data!J$36*10^12</f>
+        <v>539562506920250.62</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0</v>
+      </c>
+      <c r="G42" s="45">
+        <v>0</v>
+      </c>
+      <c r="H42" s="45">
+        <v>0</v>
+      </c>
+      <c r="I42" s="42">
+        <f>Data!J$69*10^12</f>
+        <v>38176748810958.539</v>
       </c>
     </row>
   </sheetData>
